--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_7_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_7_16.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>323499.4281938599</v>
+        <v>322848.6490881895</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4285045.199486649</v>
+        <v>4285045.199486647</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15871488.12808818</v>
+        <v>15871488.12808819</v>
       </c>
     </row>
     <row r="9">
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>149.9088930651618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>149.9088930651618</v>
+        <v>132.0397530117945</v>
       </c>
       <c r="G11" t="n">
         <v>149.9088930651618</v>
       </c>
       <c r="H11" t="n">
-        <v>132.0397530117945</v>
+        <v>149.9088930651618</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>149.9088930651618</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1446,19 +1446,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>149.9088930651618</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>149.9088930651618</v>
+        <v>73.63150158937511</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>149.9088930651618</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>65.71175959472042</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1503,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>134.5035805123176</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>149.9088930651618</v>
       </c>
       <c r="H13" t="n">
         <v>149.9088930651618</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>136.527598054025</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1570,13 +1570,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.86903925848996</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>98.65855879553509</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>149.9088930651618</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1604,76 +1604,76 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>69.1054209904857</v>
+      </c>
+      <c r="S14" t="n">
         <v>149.9088930651618</v>
       </c>
-      <c r="C14" t="n">
+      <c r="T14" t="n">
         <v>149.9088930651618</v>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>149.9088930651618</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>62.9343320213088</v>
       </c>
       <c r="W14" t="n">
-        <v>149.9088930651618</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>132.0397530117945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.223833858263348</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1695,10 +1695,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.6555998253092</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>57.44661557662151</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>149.9088930651618</v>
       </c>
       <c r="T15" t="n">
         <v>149.9088930651618</v>
@@ -1743,7 +1743,7 @@
         <v>149.9088930651618</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>74.59313743517296</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1768,25 +1768,25 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>91.25732229615309</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>149.9088930651618</v>
       </c>
       <c r="H16" t="n">
-        <v>3.189220982333905</v>
+        <v>149.9088930651618</v>
       </c>
       <c r="I16" t="n">
         <v>138.1067275372333</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1853,16 +1853,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>132.0397530117945</v>
       </c>
       <c r="G17" t="n">
-        <v>132.0397530117945</v>
+        <v>149.9088930651618</v>
       </c>
       <c r="H17" t="n">
         <v>149.9088930651618</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>149.9088930651618</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,13 +1895,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>149.9088930651618</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>149.9088930651618</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1926,19 +1926,19 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>149.9088930651618</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>33.75165018469986</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,16 +1971,16 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>149.9088930651618</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>136.8794336835724</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>149.9088930651618</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2008,61 +2008,61 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>132.0397530117945</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
         <v>149.9088930651618</v>
-      </c>
-      <c r="H19" t="n">
-        <v>149.9088930651618</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>132.0397530117945</v>
       </c>
       <c r="V19" t="n">
         <v>149.9088930651618</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>149.9088930651618</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2087,10 +2087,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>414.0170240739369</v>
@@ -2099,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>160.9084221286138</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>71.75603838387573</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>272.1398792418661</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2160,7 +2160,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>111.7564550362026</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -2175,10 +2175,10 @@
         <v>136.6555998253092</v>
       </c>
       <c r="H21" t="n">
-        <v>105.5916109993956</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>65.71175959472041</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>110.3513266420027</v>
       </c>
       <c r="T21" t="n">
         <v>197.3919390740697</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>47.31948473834484</v>
       </c>
       <c r="C22" t="n">
-        <v>69.99746752095132</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2290,10 +2290,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.481393154608</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2875715317206</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>69.10542099048568</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2372,16 +2372,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>81.43065722021525</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>45.82649871861766</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2400,13 +2400,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>80.92196975355878</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>122.603699244891</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>136.6555998253092</v>
@@ -2415,7 +2415,7 @@
         <v>105.5916109993956</v>
       </c>
       <c r="I24" t="n">
-        <v>65.71175959472041</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>57.44661557662151</v>
       </c>
       <c r="S24" t="n">
         <v>158.905408270449</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U24" t="n">
         <v>225.8961243613761</v>
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>119.1459050291629</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>213.9658230228616</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.481393154608</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>142.3192160298107</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>103.2367150418099</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.0170240739369</v>
+        <v>10.42805285770342</v>
       </c>
       <c r="H26" t="n">
         <v>326.3074893360965</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2618,10 +2618,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2637,22 +2637,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>15.21021015883837</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>136.6555998253092</v>
       </c>
       <c r="H27" t="n">
-        <v>105.5916109993956</v>
+        <v>34.06052840368883</v>
       </c>
       <c r="I27" t="n">
-        <v>65.71175959472041</v>
+        <v>65.71175959472042</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>57.4466155766215</v>
+        <v>57.44661557662151</v>
       </c>
       <c r="S27" t="n">
         <v>158.905408270449</v>
@@ -2697,7 +2697,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2713,16 +2713,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2770,13 +2770,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>120.4830900675085</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>43.10579054686118</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,13 +2789,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2807,10 +2807,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>326.3074893360965</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>160.9084221286138</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,25 +2837,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>69.10542099048568</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>179.7218745449422</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>217.4676389752864</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>333.4631975231942</v>
+        <v>55.20881619851767</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2874,7 +2874,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>75.9139829689319</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -2889,7 +2889,7 @@
         <v>105.5916109993956</v>
       </c>
       <c r="I30" t="n">
-        <v>65.71175959472041</v>
+        <v>65.71175959472042</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,16 +2916,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>57.44661557662151</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T30" t="n">
         <v>197.3919390740697</v>
       </c>
       <c r="U30" t="n">
-        <v>164.9440804092624</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2934,7 +2934,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2959,16 +2959,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4142525710033</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>157.0995470698808</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>111.8315845434646</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>137.4721234661479</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3013,10 +3013,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>282.8740892293896</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>414.0170240739369</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,28 +3074,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>69.10542099048568</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>179.7218745449422</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.4676389752864</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2427958325407</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>177.3681999622814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3120,13 +3120,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H33" t="n">
-        <v>30.65490262024094</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>51.53700314946229</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>57.4466155766215</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>158.905408270449</v>
@@ -3174,7 +3174,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>16.1029775746199</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3229,13 +3229,13 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>37.86903925848996</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>151.3616578248528</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>213.9658230228616</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3250,10 +3250,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>178.5699121010756</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3278,10 +3278,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>258.4460873643665</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3311,16 +3311,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>69.1054209904857</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4676389752864</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2427958325407</v>
+        <v>152.021737300669</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3342,10 +3342,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -3354,16 +3354,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>36.20583101479127</v>
       </c>
       <c r="G36" t="n">
-        <v>136.6555998253092</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>65.71175959472041</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,13 +3393,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>158.905408270449</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>46.28404405910993</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8961243613761</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3411,7 +3411,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>49.1921302609379</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>151.3616578248528</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>213.9658230228616</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3481,13 +3481,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>69.53377848165188</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3506,19 +3506,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>280.3908837842407</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>326.3074893360965</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>160.9084221286138</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>75.588754354898</v>
       </c>
       <c r="T38" t="n">
         <v>217.4676389752864</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3585,7 +3585,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3594,13 +3594,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>123.0276280528731</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>65.71175959472041</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>57.4466155766215</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>158.905408270449</v>
@@ -3645,7 +3645,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>58.19717252036993</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3661,16 +3661,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>120.3156585951329</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>81.43370471300533</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.4142525710033</v>
@@ -3703,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>37.86903925848996</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3740,22 +3740,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>216.102653904703</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>326.3074893360965</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.0858927790317</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2427958325407</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3819,7 +3819,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -3828,16 +3828,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>7.701645727484928</v>
       </c>
       <c r="G42" t="n">
-        <v>136.6555998253092</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>105.5916109993956</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>65.71175959472041</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3873,13 +3873,13 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>204.9730694252874</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3901,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>43.64399839420798</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3940,22 +3940,22 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>37.86903925848996</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>213.9658230228616</v>
+        <v>213.9658230228617</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>115.6629658605902</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2875715317206</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>599.6355722606473</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="C11" t="n">
-        <v>599.6355722606473</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="D11" t="n">
-        <v>599.6355722606473</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="E11" t="n">
-        <v>448.2124479524031</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="F11" t="n">
-        <v>296.7893236441588</v>
+        <v>466.2620843699457</v>
       </c>
       <c r="G11" t="n">
-        <v>145.3661993359145</v>
+        <v>314.8389600617015</v>
       </c>
       <c r="H11" t="n">
-        <v>11.99271144521295</v>
+        <v>163.4158357534572</v>
       </c>
       <c r="I11" t="n">
         <v>11.99271144521295</v>
       </c>
       <c r="J11" t="n">
-        <v>11.99271144521295</v>
+        <v>108.1950029522401</v>
       </c>
       <c r="K11" t="n">
-        <v>160.4025155797232</v>
+        <v>256.6048070867503</v>
       </c>
       <c r="L11" t="n">
-        <v>160.4025155797232</v>
+        <v>256.6048070867503</v>
       </c>
       <c r="M11" t="n">
-        <v>308.8123197142334</v>
+        <v>405.0146112212605</v>
       </c>
       <c r="N11" t="n">
-        <v>308.8123197142334</v>
+        <v>451.225768126137</v>
       </c>
       <c r="O11" t="n">
-        <v>451.2257681261372</v>
+        <v>451.225768126137</v>
       </c>
       <c r="P11" t="n">
-        <v>599.6355722606473</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="Q11" t="n">
-        <v>599.6355722606473</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="R11" t="n">
-        <v>599.6355722606473</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="S11" t="n">
-        <v>599.6355722606473</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="T11" t="n">
-        <v>599.6355722606473</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="U11" t="n">
-        <v>599.6355722606473</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="V11" t="n">
-        <v>599.6355722606473</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="W11" t="n">
-        <v>599.6355722606473</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="X11" t="n">
-        <v>599.6355722606473</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="Y11" t="n">
-        <v>599.6355722606473</v>
+        <v>599.6355722606472</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>312.3502454147085</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="C12" t="n">
-        <v>160.9271211064642</v>
+        <v>525.2603181299653</v>
       </c>
       <c r="D12" t="n">
-        <v>11.99271144521295</v>
+        <v>376.3259084687141</v>
       </c>
       <c r="E12" t="n">
-        <v>11.99271144521295</v>
+        <v>224.9027841604698</v>
       </c>
       <c r="F12" t="n">
-        <v>11.99271144521295</v>
+        <v>78.36822618735479</v>
       </c>
       <c r="G12" t="n">
-        <v>11.99271144521295</v>
+        <v>78.36822618735479</v>
       </c>
       <c r="H12" t="n">
-        <v>11.99271144521295</v>
+        <v>78.36822618735479</v>
       </c>
       <c r="I12" t="n">
         <v>11.99271144521295</v>
@@ -5121,49 +5121,49 @@
         <v>11.99271144521295</v>
       </c>
       <c r="K12" t="n">
-        <v>122.559314999296</v>
+        <v>11.99271144521295</v>
       </c>
       <c r="L12" t="n">
-        <v>270.9691191338063</v>
+        <v>22.69578043981807</v>
       </c>
       <c r="M12" t="n">
-        <v>302.815963991627</v>
+        <v>54.54262529763876</v>
       </c>
       <c r="N12" t="n">
-        <v>451.2257681261372</v>
+        <v>202.952429432149</v>
       </c>
       <c r="O12" t="n">
-        <v>599.6355722606473</v>
+        <v>351.3622335666591</v>
       </c>
       <c r="P12" t="n">
-        <v>599.6355722606473</v>
+        <v>451.225768126137</v>
       </c>
       <c r="Q12" t="n">
-        <v>599.6355722606473</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="R12" t="n">
-        <v>599.6355722606473</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="S12" t="n">
-        <v>599.6355722606473</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="T12" t="n">
-        <v>599.6355722606473</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="U12" t="n">
-        <v>463.7733697229528</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="V12" t="n">
-        <v>463.7733697229528</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="W12" t="n">
-        <v>463.7733697229528</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="X12" t="n">
-        <v>463.7733697229528</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="Y12" t="n">
-        <v>463.7733697229528</v>
+        <v>599.6355722606472</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>310.3057832513676</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="C13" t="n">
-        <v>310.3057832513676</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="D13" t="n">
-        <v>310.3057832513676</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="E13" t="n">
-        <v>310.3057832513676</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="F13" t="n">
-        <v>163.4158357534573</v>
+        <v>452.7456247627368</v>
       </c>
       <c r="G13" t="n">
-        <v>163.4158357534573</v>
+        <v>301.3225004544926</v>
       </c>
       <c r="H13" t="n">
-        <v>11.99271144521295</v>
+        <v>149.8993761462483</v>
       </c>
       <c r="I13" t="n">
         <v>11.99271144521295</v>
@@ -5200,7 +5200,7 @@
         <v>11.99271144521295</v>
       </c>
       <c r="K13" t="n">
-        <v>56.28102963071898</v>
+        <v>56.28102963071896</v>
       </c>
       <c r="L13" t="n">
         <v>168.4812635768552</v>
@@ -5212,37 +5212,37 @@
         <v>428.2330305085122</v>
       </c>
       <c r="O13" t="n">
-        <v>533.2748399656327</v>
+        <v>533.2748399656326</v>
       </c>
       <c r="P13" t="n">
-        <v>599.6355722606473</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="Q13" t="n">
-        <v>561.3840174540918</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="R13" t="n">
-        <v>461.7289075596119</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="S13" t="n">
-        <v>310.3057832513676</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="T13" t="n">
-        <v>310.3057832513676</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="U13" t="n">
-        <v>310.3057832513676</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="V13" t="n">
-        <v>310.3057832513676</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="W13" t="n">
-        <v>310.3057832513676</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="X13" t="n">
-        <v>310.3057832513676</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="Y13" t="n">
-        <v>310.3057832513676</v>
+        <v>599.6355722606472</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>163.4158357534573</v>
+        <v>11.99271144521295</v>
       </c>
       <c r="C14" t="n">
         <v>11.99271144521295</v>
@@ -5276,52 +5276,52 @@
         <v>11.99271144521295</v>
       </c>
       <c r="J14" t="n">
+        <v>11.99271144521295</v>
+      </c>
+      <c r="K14" t="n">
+        <v>11.99271144521295</v>
+      </c>
+      <c r="L14" t="n">
+        <v>11.99271144521295</v>
+      </c>
+      <c r="M14" t="n">
         <v>26.84279058006001</v>
       </c>
-      <c r="K14" t="n">
+      <c r="N14" t="n">
         <v>175.2525947145702</v>
       </c>
-      <c r="L14" t="n">
-        <v>175.2525947145702</v>
-      </c>
-      <c r="M14" t="n">
+      <c r="O14" t="n">
         <v>323.6623988490804</v>
       </c>
-      <c r="N14" t="n">
-        <v>323.6623988490804</v>
-      </c>
-      <c r="O14" t="n">
-        <v>472.0722029835907</v>
-      </c>
       <c r="P14" t="n">
-        <v>472.0722029835907</v>
+        <v>472.0722029835906</v>
       </c>
       <c r="Q14" t="n">
-        <v>599.6355722606473</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="R14" t="n">
-        <v>599.6355722606473</v>
+        <v>529.8321167147021</v>
       </c>
       <c r="S14" t="n">
-        <v>599.6355722606473</v>
+        <v>378.4089924064579</v>
       </c>
       <c r="T14" t="n">
-        <v>599.6355722606473</v>
+        <v>226.9858680982136</v>
       </c>
       <c r="U14" t="n">
-        <v>599.6355722606473</v>
+        <v>75.56274378996932</v>
       </c>
       <c r="V14" t="n">
-        <v>599.6355722606473</v>
+        <v>11.99271144521295</v>
       </c>
       <c r="W14" t="n">
-        <v>448.2124479524031</v>
+        <v>11.99271144521295</v>
       </c>
       <c r="X14" t="n">
-        <v>448.2124479524031</v>
+        <v>11.99271144521295</v>
       </c>
       <c r="Y14" t="n">
-        <v>314.8389600617015</v>
+        <v>11.99271144521295</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>296.5632288378322</v>
+        <v>11.99271144521295</v>
       </c>
       <c r="C15" t="n">
-        <v>296.5632288378322</v>
+        <v>11.99271144521295</v>
       </c>
       <c r="D15" t="n">
-        <v>296.5632288378322</v>
+        <v>11.99271144521295</v>
       </c>
       <c r="E15" t="n">
-        <v>296.5632288378322</v>
+        <v>11.99271144521295</v>
       </c>
       <c r="F15" t="n">
-        <v>150.0286708647172</v>
+        <v>11.99271144521295</v>
       </c>
       <c r="G15" t="n">
         <v>11.99271144521295</v>
@@ -5355,52 +5355,52 @@
         <v>11.99271144521295</v>
       </c>
       <c r="J15" t="n">
-        <v>75.59675753212025</v>
+        <v>11.99271144521295</v>
       </c>
       <c r="K15" t="n">
-        <v>75.59675753212025</v>
+        <v>11.99271144521295</v>
       </c>
       <c r="L15" t="n">
-        <v>86.29982652672541</v>
+        <v>75.46093400558586</v>
       </c>
       <c r="M15" t="n">
-        <v>133.5401378621669</v>
+        <v>107.3077788634066</v>
       </c>
       <c r="N15" t="n">
-        <v>281.9499419966771</v>
+        <v>154.4061598571167</v>
       </c>
       <c r="O15" t="n">
-        <v>302.815963991627</v>
+        <v>302.8159639916269</v>
       </c>
       <c r="P15" t="n">
-        <v>451.2257681261372</v>
+        <v>451.225768126137</v>
       </c>
       <c r="Q15" t="n">
-        <v>599.6355722606473</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="R15" t="n">
-        <v>599.6355722606473</v>
+        <v>541.6086878398174</v>
       </c>
       <c r="S15" t="n">
-        <v>599.6355722606473</v>
+        <v>390.1855635315732</v>
       </c>
       <c r="T15" t="n">
-        <v>448.2124479524031</v>
+        <v>238.7624392233289</v>
       </c>
       <c r="U15" t="n">
-        <v>296.7893236441588</v>
+        <v>87.33931491508463</v>
       </c>
       <c r="V15" t="n">
-        <v>296.7893236441588</v>
+        <v>11.99271144521295</v>
       </c>
       <c r="W15" t="n">
-        <v>296.7893236441588</v>
+        <v>11.99271144521295</v>
       </c>
       <c r="X15" t="n">
-        <v>296.7893236441588</v>
+        <v>11.99271144521295</v>
       </c>
       <c r="Y15" t="n">
-        <v>296.7893236441588</v>
+        <v>11.99271144521295</v>
       </c>
     </row>
     <row r="16">
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>599.6355722606473</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="C16" t="n">
-        <v>599.6355722606473</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="D16" t="n">
-        <v>449.5189328483116</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="E16" t="n">
-        <v>301.6058392659185</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="F16" t="n">
-        <v>154.7158917680081</v>
+        <v>507.4564588301895</v>
       </c>
       <c r="G16" t="n">
-        <v>154.7158917680081</v>
+        <v>356.0333345219453</v>
       </c>
       <c r="H16" t="n">
-        <v>151.4944564323173</v>
+        <v>204.610210213701</v>
       </c>
       <c r="I16" t="n">
-        <v>11.99271144521295</v>
+        <v>65.10846522659666</v>
       </c>
       <c r="J16" t="n">
         <v>11.99271144521295</v>
       </c>
       <c r="K16" t="n">
-        <v>56.28102963071898</v>
+        <v>56.28102963071896</v>
       </c>
       <c r="L16" t="n">
         <v>168.4812635768552</v>
@@ -5449,37 +5449,37 @@
         <v>428.2330305085122</v>
       </c>
       <c r="O16" t="n">
-        <v>533.2748399656327</v>
+        <v>533.2748399656326</v>
       </c>
       <c r="P16" t="n">
-        <v>599.6355722606473</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="Q16" t="n">
-        <v>599.6355722606473</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="R16" t="n">
-        <v>599.6355722606473</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="S16" t="n">
-        <v>599.6355722606473</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="T16" t="n">
-        <v>599.6355722606473</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="U16" t="n">
-        <v>599.6355722606473</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="V16" t="n">
-        <v>599.6355722606473</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="W16" t="n">
-        <v>599.6355722606473</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="X16" t="n">
-        <v>599.6355722606473</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="Y16" t="n">
-        <v>599.6355722606473</v>
+        <v>599.6355722606472</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>296.7893236441588</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="C17" t="n">
-        <v>296.7893236441588</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="D17" t="n">
-        <v>296.7893236441588</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="E17" t="n">
-        <v>296.7893236441588</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="F17" t="n">
-        <v>296.7893236441588</v>
+        <v>466.2620843699457</v>
       </c>
       <c r="G17" t="n">
-        <v>163.4158357534573</v>
+        <v>314.8389600617015</v>
       </c>
       <c r="H17" t="n">
-        <v>11.99271144521295</v>
+        <v>163.4158357534572</v>
       </c>
       <c r="I17" t="n">
         <v>11.99271144521295</v>
       </c>
       <c r="J17" t="n">
-        <v>11.99271144521295</v>
+        <v>108.1950029522401</v>
       </c>
       <c r="K17" t="n">
-        <v>160.4025155797232</v>
+        <v>108.1950029522401</v>
       </c>
       <c r="L17" t="n">
-        <v>302.815963991627</v>
+        <v>108.1950029522401</v>
       </c>
       <c r="M17" t="n">
-        <v>302.815963991627</v>
+        <v>256.6048070867503</v>
       </c>
       <c r="N17" t="n">
-        <v>451.2257681261372</v>
+        <v>405.0146112212605</v>
       </c>
       <c r="O17" t="n">
-        <v>599.6355722606473</v>
+        <v>472.0722029835906</v>
       </c>
       <c r="P17" t="n">
-        <v>599.6355722606473</v>
+        <v>472.0722029835906</v>
       </c>
       <c r="Q17" t="n">
-        <v>599.6355722606473</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="R17" t="n">
-        <v>599.6355722606473</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="S17" t="n">
-        <v>599.6355722606473</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="T17" t="n">
-        <v>448.2124479524031</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="U17" t="n">
-        <v>448.2124479524031</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="V17" t="n">
-        <v>296.7893236441588</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="W17" t="n">
-        <v>296.7893236441588</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="X17" t="n">
-        <v>296.7893236441588</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="Y17" t="n">
-        <v>296.7893236441588</v>
+        <v>599.6355722606472</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>158.527269418328</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="C18" t="n">
-        <v>158.527269418328</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="D18" t="n">
-        <v>158.527269418328</v>
+        <v>450.701162599396</v>
       </c>
       <c r="E18" t="n">
-        <v>158.527269418328</v>
+        <v>299.2780382911517</v>
       </c>
       <c r="F18" t="n">
-        <v>11.99271144521295</v>
+        <v>152.7434803180367</v>
       </c>
       <c r="G18" t="n">
-        <v>11.99271144521295</v>
+        <v>118.6509043738954</v>
       </c>
       <c r="H18" t="n">
         <v>11.99271144521295</v>
@@ -5598,46 +5598,46 @@
         <v>11.99271144521295</v>
       </c>
       <c r="L18" t="n">
-        <v>160.4025155797232</v>
+        <v>160.4025155797231</v>
       </c>
       <c r="M18" t="n">
-        <v>255.7175829979168</v>
+        <v>192.2493604375438</v>
       </c>
       <c r="N18" t="n">
-        <v>302.815963991627</v>
+        <v>239.3477414312539</v>
       </c>
       <c r="O18" t="n">
-        <v>451.2257681261372</v>
+        <v>302.8159639916269</v>
       </c>
       <c r="P18" t="n">
-        <v>451.2257681261372</v>
+        <v>451.225768126137</v>
       </c>
       <c r="Q18" t="n">
-        <v>599.6355722606473</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="R18" t="n">
-        <v>599.6355722606473</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="S18" t="n">
-        <v>448.2124479524031</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="T18" t="n">
-        <v>448.2124479524031</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="U18" t="n">
-        <v>309.9503937265723</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="V18" t="n">
-        <v>158.527269418328</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="W18" t="n">
-        <v>158.527269418328</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="X18" t="n">
-        <v>158.527269418328</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="Y18" t="n">
-        <v>158.527269418328</v>
+        <v>599.6355722606472</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>314.8389600617015</v>
+        <v>145.3661993359144</v>
       </c>
       <c r="C19" t="n">
-        <v>314.8389600617015</v>
+        <v>145.3661993359144</v>
       </c>
       <c r="D19" t="n">
-        <v>314.8389600617015</v>
+        <v>145.3661993359144</v>
       </c>
       <c r="E19" t="n">
-        <v>314.8389600617015</v>
+        <v>11.99271144521295</v>
       </c>
       <c r="F19" t="n">
-        <v>314.8389600617015</v>
+        <v>11.99271144521295</v>
       </c>
       <c r="G19" t="n">
-        <v>163.4158357534573</v>
+        <v>11.99271144521295</v>
       </c>
       <c r="H19" t="n">
         <v>11.99271144521295</v>
@@ -5674,49 +5674,49 @@
         <v>11.99271144521295</v>
       </c>
       <c r="K19" t="n">
-        <v>56.28102963071899</v>
+        <v>56.28102963071896</v>
       </c>
       <c r="L19" t="n">
         <v>168.4812635768552</v>
       </c>
       <c r="M19" t="n">
-        <v>297.169801733932</v>
+        <v>297.1698017339319</v>
       </c>
       <c r="N19" t="n">
-        <v>428.2330305085122</v>
+        <v>428.2330305085121</v>
       </c>
       <c r="O19" t="n">
-        <v>533.2748399656327</v>
+        <v>533.2748399656326</v>
       </c>
       <c r="P19" t="n">
-        <v>599.6355722606473</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="Q19" t="n">
-        <v>599.6355722606473</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="R19" t="n">
-        <v>599.6355722606473</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="S19" t="n">
-        <v>599.6355722606473</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="T19" t="n">
-        <v>599.6355722606473</v>
+        <v>599.6355722606472</v>
       </c>
       <c r="U19" t="n">
-        <v>466.2620843699458</v>
+        <v>448.212447952403</v>
       </c>
       <c r="V19" t="n">
-        <v>314.8389600617015</v>
+        <v>296.7893236441587</v>
       </c>
       <c r="W19" t="n">
-        <v>314.8389600617015</v>
+        <v>145.3661993359144</v>
       </c>
       <c r="X19" t="n">
-        <v>314.8389600617015</v>
+        <v>145.3661993359144</v>
       </c>
       <c r="Y19" t="n">
-        <v>314.8389600617015</v>
+        <v>145.3661993359144</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1040.278713409902</v>
+        <v>852.5473014926661</v>
       </c>
       <c r="C20" t="n">
-        <v>1040.278713409902</v>
+        <v>852.5473014926661</v>
       </c>
       <c r="D20" t="n">
-        <v>1040.278713409902</v>
+        <v>852.5473014926661</v>
       </c>
       <c r="E20" t="n">
-        <v>1040.278713409902</v>
+        <v>466.7590488944218</v>
       </c>
       <c r="F20" t="n">
-        <v>629.2928086202943</v>
+        <v>466.7590488944218</v>
       </c>
       <c r="G20" t="n">
-        <v>211.0937944041964</v>
+        <v>48.56003467832387</v>
       </c>
       <c r="H20" t="n">
-        <v>211.0937944041964</v>
+        <v>48.56003467832387</v>
       </c>
       <c r="I20" t="n">
         <v>48.56003467832387</v>
       </c>
       <c r="J20" t="n">
-        <v>144.7623261853512</v>
+        <v>144.762326185351</v>
       </c>
       <c r="K20" t="n">
-        <v>409.6894275306261</v>
+        <v>409.6894275306258</v>
       </c>
       <c r="L20" t="n">
-        <v>790.6315507484449</v>
+        <v>790.6315507484446</v>
       </c>
       <c r="M20" t="n">
-        <v>1231.109607990318</v>
+        <v>1231.109607990317</v>
       </c>
       <c r="N20" t="n">
         <v>1664.083063158182</v>
       </c>
       <c r="O20" t="n">
-        <v>2027.73998136085</v>
+        <v>2027.739981360849</v>
       </c>
       <c r="P20" t="n">
         <v>2300.438364639137</v>
       </c>
       <c r="Q20" t="n">
-        <v>2428.001733916194</v>
+        <v>2428.001733916193</v>
       </c>
       <c r="R20" t="n">
-        <v>2428.001733916194</v>
+        <v>2428.001733916193</v>
       </c>
       <c r="S20" t="n">
-        <v>2428.001733916194</v>
+        <v>2428.001733916193</v>
       </c>
       <c r="T20" t="n">
-        <v>2428.001733916194</v>
+        <v>2355.520887063793</v>
       </c>
       <c r="U20" t="n">
-        <v>2428.001733916194</v>
+        <v>2355.520887063793</v>
       </c>
       <c r="V20" t="n">
-        <v>2428.001733916194</v>
+        <v>2355.520887063793</v>
       </c>
       <c r="W20" t="n">
-        <v>2075.233078646079</v>
+        <v>2002.752231793679</v>
       </c>
       <c r="X20" t="n">
-        <v>1701.767320384999</v>
+        <v>1629.2864735326</v>
       </c>
       <c r="Y20" t="n">
-        <v>1426.878553474024</v>
+        <v>1239.147141556788</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>927.2214325258506</v>
+        <v>815.755446018777</v>
       </c>
       <c r="C21" t="n">
-        <v>814.3361244084742</v>
+        <v>641.30241673765</v>
       </c>
       <c r="D21" t="n">
-        <v>665.401714747223</v>
+        <v>492.3680070763987</v>
       </c>
       <c r="E21" t="n">
-        <v>506.1642597417674</v>
+        <v>333.1305520709432</v>
       </c>
       <c r="F21" t="n">
-        <v>359.6297017686524</v>
+        <v>186.5959940978281</v>
       </c>
       <c r="G21" t="n">
-        <v>221.5937423491482</v>
+        <v>48.56003467832387</v>
       </c>
       <c r="H21" t="n">
-        <v>114.9355494204657</v>
+        <v>48.56003467832387</v>
       </c>
       <c r="I21" t="n">
         <v>48.56003467832387</v>
       </c>
       <c r="J21" t="n">
-        <v>76.81262990515918</v>
+        <v>112.1640807652311</v>
       </c>
       <c r="K21" t="n">
-        <v>312.1429184859023</v>
+        <v>347.4943693459743</v>
       </c>
       <c r="L21" t="n">
-        <v>689.9779293309321</v>
+        <v>725.329380191004</v>
       </c>
       <c r="M21" t="n">
-        <v>1182.872787301253</v>
+        <v>1218.224238161325</v>
       </c>
       <c r="N21" t="n">
-        <v>1704.520118895081</v>
+        <v>1704.52011889508</v>
       </c>
       <c r="O21" t="n">
-        <v>2115.309836973993</v>
+        <v>2115.309836973992</v>
       </c>
       <c r="P21" t="n">
-        <v>2428.001733916194</v>
+        <v>2428.001733916193</v>
       </c>
       <c r="Q21" t="n">
-        <v>2428.001733916194</v>
+        <v>2428.001733916193</v>
       </c>
       <c r="R21" t="n">
-        <v>2428.001733916194</v>
+        <v>2428.001733916193</v>
       </c>
       <c r="S21" t="n">
-        <v>2428.001733916194</v>
+        <v>2316.53574740912</v>
       </c>
       <c r="T21" t="n">
-        <v>2228.615936871679</v>
+        <v>2117.149950364605</v>
       </c>
       <c r="U21" t="n">
-        <v>2000.43803347635</v>
+        <v>1888.972046969276</v>
       </c>
       <c r="V21" t="n">
-        <v>1765.285925244607</v>
+        <v>1653.819938737533</v>
       </c>
       <c r="W21" t="n">
-        <v>1511.048568516405</v>
+        <v>1399.582582009332</v>
       </c>
       <c r="X21" t="n">
-        <v>1303.197068310873</v>
+        <v>1191.731081803799</v>
       </c>
       <c r="Y21" t="n">
-        <v>1095.436769545919</v>
+        <v>983.970783038845</v>
       </c>
     </row>
     <row r="22">
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>119.2645473257494</v>
+        <v>367.6128570185665</v>
       </c>
       <c r="C22" t="n">
-        <v>48.56003467832387</v>
+        <v>198.6766740906596</v>
       </c>
       <c r="D22" t="n">
         <v>48.56003467832387</v>
@@ -5911,7 +5911,7 @@
         <v>48.56003467832387</v>
       </c>
       <c r="K22" t="n">
-        <v>92.8483528638299</v>
+        <v>92.84835286382989</v>
       </c>
       <c r="L22" t="n">
         <v>205.0485868099661</v>
@@ -5920,40 +5920,40 @@
         <v>333.7371249670429</v>
       </c>
       <c r="N22" t="n">
-        <v>464.8003537416232</v>
+        <v>464.8003537416231</v>
       </c>
       <c r="O22" t="n">
-        <v>569.8421631987436</v>
+        <v>569.8421631987435</v>
       </c>
       <c r="P22" t="n">
-        <v>636.2028954937582</v>
+        <v>636.2028954937581</v>
       </c>
       <c r="Q22" t="n">
-        <v>636.2028954937582</v>
+        <v>636.2028954937581</v>
       </c>
       <c r="R22" t="n">
-        <v>636.2028954937582</v>
+        <v>636.2028954937581</v>
       </c>
       <c r="S22" t="n">
-        <v>636.2028954937582</v>
+        <v>636.2028954937581</v>
       </c>
       <c r="T22" t="n">
-        <v>408.4439125093056</v>
+        <v>636.2028954937581</v>
       </c>
       <c r="U22" t="n">
-        <v>119.2645473257494</v>
+        <v>636.2028954937581</v>
       </c>
       <c r="V22" t="n">
-        <v>119.2645473257494</v>
+        <v>636.2028954937581</v>
       </c>
       <c r="W22" t="n">
-        <v>119.2645473257494</v>
+        <v>636.2028954937581</v>
       </c>
       <c r="X22" t="n">
-        <v>119.2645473257494</v>
+        <v>636.2028954937581</v>
       </c>
       <c r="Y22" t="n">
-        <v>119.2645473257494</v>
+        <v>415.410316350228</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>828.5084564083431</v>
+        <v>1604.973169231191</v>
       </c>
       <c r="C23" t="n">
-        <v>459.5459394679314</v>
+        <v>1236.01065229078</v>
       </c>
       <c r="D23" t="n">
-        <v>459.5459394679314</v>
+        <v>877.7449536840293</v>
       </c>
       <c r="E23" t="n">
-        <v>459.5459394679314</v>
+        <v>877.7449536840293</v>
       </c>
       <c r="F23" t="n">
-        <v>48.56003467832387</v>
+        <v>466.7590488944218</v>
       </c>
       <c r="G23" t="n">
         <v>48.56003467832387</v>
@@ -6011,28 +6011,28 @@
         <v>2428.001733916193</v>
       </c>
       <c r="R23" t="n">
-        <v>2358.198278370248</v>
+        <v>2428.001733916193</v>
       </c>
       <c r="S23" t="n">
-        <v>2358.198278370248</v>
+        <v>2428.001733916193</v>
       </c>
       <c r="T23" t="n">
-        <v>2358.198278370248</v>
+        <v>2428.001733916193</v>
       </c>
       <c r="U23" t="n">
-        <v>2275.945089258919</v>
+        <v>2428.001733916193</v>
       </c>
       <c r="V23" t="n">
-        <v>1944.882201915349</v>
+        <v>2428.001733916193</v>
       </c>
       <c r="W23" t="n">
-        <v>1592.113546645235</v>
+        <v>2428.001733916193</v>
       </c>
       <c r="X23" t="n">
-        <v>1218.647788384155</v>
+        <v>2381.712341271125</v>
       </c>
       <c r="Y23" t="n">
-        <v>828.5084564083431</v>
+        <v>1991.573009295313</v>
       </c>
     </row>
     <row r="24">
@@ -6042,46 +6042,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>966.0967161658709</v>
+        <v>708.6840347005261</v>
       </c>
       <c r="C24" t="n">
-        <v>791.6436868847439</v>
+        <v>534.2310054193991</v>
       </c>
       <c r="D24" t="n">
-        <v>642.7092772234927</v>
+        <v>452.491642031966</v>
       </c>
       <c r="E24" t="n">
-        <v>483.4718222180372</v>
+        <v>293.2541870265105</v>
       </c>
       <c r="F24" t="n">
-        <v>359.6297017686524</v>
+        <v>293.2541870265105</v>
       </c>
       <c r="G24" t="n">
-        <v>221.5937423491481</v>
+        <v>155.2182276070063</v>
       </c>
       <c r="H24" t="n">
-        <v>114.9355494204657</v>
+        <v>48.56003467832387</v>
       </c>
       <c r="I24" t="n">
         <v>48.56003467832387</v>
       </c>
       <c r="J24" t="n">
-        <v>112.1640807652312</v>
+        <v>112.1640807652311</v>
       </c>
       <c r="K24" t="n">
-        <v>347.4943693459743</v>
+        <v>312.1429184859019</v>
       </c>
       <c r="L24" t="n">
-        <v>725.329380191004</v>
+        <v>689.9779293309316</v>
       </c>
       <c r="M24" t="n">
-        <v>1218.224238161325</v>
+        <v>1182.872787301252</v>
       </c>
       <c r="N24" t="n">
-        <v>1739.871569755153</v>
+        <v>1704.52011889508</v>
       </c>
       <c r="O24" t="n">
-        <v>2150.661287834065</v>
+        <v>2115.309836973992</v>
       </c>
       <c r="P24" t="n">
         <v>2428.001733916193</v>
@@ -6090,28 +6090,28 @@
         <v>2428.001733916193</v>
       </c>
       <c r="R24" t="n">
-        <v>2428.001733916193</v>
+        <v>2369.974849495363</v>
       </c>
       <c r="S24" t="n">
-        <v>2267.491220511699</v>
+        <v>2209.464336090869</v>
       </c>
       <c r="T24" t="n">
-        <v>2267.491220511699</v>
+        <v>2010.078539046355</v>
       </c>
       <c r="U24" t="n">
-        <v>2039.31331711637</v>
+        <v>1781.900635651025</v>
       </c>
       <c r="V24" t="n">
-        <v>1804.161208884627</v>
+        <v>1546.748527419282</v>
       </c>
       <c r="W24" t="n">
-        <v>1549.923852156426</v>
+        <v>1292.511170691081</v>
       </c>
       <c r="X24" t="n">
-        <v>1342.072351950893</v>
+        <v>1084.659670485548</v>
       </c>
       <c r="Y24" t="n">
-        <v>1134.312053185939</v>
+        <v>876.8993717205942</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1840.358873100759</v>
+        <v>2428.001733916193</v>
       </c>
       <c r="C25" t="n">
-        <v>1840.358873100759</v>
+        <v>2428.001733916193</v>
       </c>
       <c r="D25" t="n">
-        <v>1840.358873100759</v>
+        <v>2428.001733916193</v>
       </c>
       <c r="E25" t="n">
-        <v>1840.358873100759</v>
+        <v>2428.001733916193</v>
       </c>
       <c r="F25" t="n">
-        <v>1840.358873100759</v>
+        <v>2307.652334896837</v>
       </c>
       <c r="G25" t="n">
-        <v>1840.358873100759</v>
+        <v>2138.547029269561</v>
       </c>
       <c r="H25" t="n">
-        <v>1840.358873100759</v>
+        <v>1979.860618087863</v>
       </c>
       <c r="I25" t="n">
         <v>1840.358873100759</v>
@@ -6172,25 +6172,25 @@
         <v>2428.001733916193</v>
       </c>
       <c r="S25" t="n">
-        <v>2211.874639953707</v>
+        <v>2428.001733916193</v>
       </c>
       <c r="T25" t="n">
-        <v>1984.115656969254</v>
+        <v>2428.001733916193</v>
       </c>
       <c r="U25" t="n">
-        <v>1840.358873100759</v>
+        <v>2428.001733916193</v>
       </c>
       <c r="V25" t="n">
-        <v>1840.358873100759</v>
+        <v>2428.001733916193</v>
       </c>
       <c r="W25" t="n">
-        <v>1840.358873100759</v>
+        <v>2428.001733916193</v>
       </c>
       <c r="X25" t="n">
-        <v>1840.358873100759</v>
+        <v>2428.001733916193</v>
       </c>
       <c r="Y25" t="n">
-        <v>1840.358873100759</v>
+        <v>2428.001733916193</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1207.348478265945</v>
+        <v>2075.233078646079</v>
       </c>
       <c r="C26" t="n">
-        <v>1207.348478265945</v>
+        <v>1706.270561705667</v>
       </c>
       <c r="D26" t="n">
-        <v>1207.348478265945</v>
+        <v>1348.004863098917</v>
       </c>
       <c r="E26" t="n">
-        <v>1207.348478265945</v>
+        <v>962.2166105006725</v>
       </c>
       <c r="F26" t="n">
-        <v>796.3625734763374</v>
+        <v>551.230705711065</v>
       </c>
       <c r="G26" t="n">
-        <v>378.1635592602395</v>
+        <v>540.697318986112</v>
       </c>
       <c r="H26" t="n">
-        <v>48.56003467832387</v>
+        <v>211.0937944041964</v>
       </c>
       <c r="I26" t="n">
         <v>48.56003467832387</v>
       </c>
       <c r="J26" t="n">
-        <v>144.7623261853512</v>
+        <v>144.762326185351</v>
       </c>
       <c r="K26" t="n">
-        <v>409.6894275306261</v>
+        <v>409.6894275306258</v>
       </c>
       <c r="L26" t="n">
-        <v>790.6315507484447</v>
+        <v>790.6315507484444</v>
       </c>
       <c r="M26" t="n">
         <v>1231.109607990317</v>
@@ -6266,10 +6266,10 @@
         <v>2075.233078646079</v>
       </c>
       <c r="X26" t="n">
-        <v>1701.767320384999</v>
+        <v>2075.233078646079</v>
       </c>
       <c r="Y26" t="n">
-        <v>1311.627988409187</v>
+        <v>2075.233078646079</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>708.6840347005261</v>
+        <v>916.535534906059</v>
       </c>
       <c r="C27" t="n">
-        <v>534.2310054193991</v>
+        <v>742.082505624932</v>
       </c>
       <c r="D27" t="n">
-        <v>534.2310054193991</v>
+        <v>593.1480959636807</v>
       </c>
       <c r="E27" t="n">
-        <v>374.9935504139436</v>
+        <v>433.9106409582252</v>
       </c>
       <c r="F27" t="n">
-        <v>359.6297017686524</v>
+        <v>287.3760829851102</v>
       </c>
       <c r="G27" t="n">
-        <v>221.5937423491481</v>
+        <v>149.3401235656059</v>
       </c>
       <c r="H27" t="n">
         <v>114.9355494204657</v>
@@ -6345,10 +6345,10 @@
         <v>1292.511170691081</v>
       </c>
       <c r="X27" t="n">
-        <v>1084.659670485548</v>
+        <v>1292.511170691081</v>
       </c>
       <c r="Y27" t="n">
-        <v>876.8993717205942</v>
+        <v>1084.750871926127</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>514.5028045164769</v>
+        <v>1840.358873100759</v>
       </c>
       <c r="C28" t="n">
-        <v>345.5666215885699</v>
+        <v>1840.358873100759</v>
       </c>
       <c r="D28" t="n">
-        <v>195.4499821762342</v>
+        <v>1840.358873100759</v>
       </c>
       <c r="E28" t="n">
-        <v>195.4499821762342</v>
+        <v>1840.358873100759</v>
       </c>
       <c r="F28" t="n">
-        <v>48.56003467832387</v>
+        <v>1840.358873100759</v>
       </c>
       <c r="G28" t="n">
-        <v>48.56003467832387</v>
+        <v>1840.358873100759</v>
       </c>
       <c r="H28" t="n">
-        <v>48.56003467832387</v>
+        <v>1840.358873100759</v>
       </c>
       <c r="I28" t="n">
-        <v>48.56003467832387</v>
+        <v>1840.358873100759</v>
       </c>
       <c r="J28" t="n">
-        <v>48.56003467832387</v>
+        <v>1840.358873100759</v>
       </c>
       <c r="K28" t="n">
-        <v>92.84835286382989</v>
+        <v>1884.647191286265</v>
       </c>
       <c r="L28" t="n">
-        <v>205.0485868099661</v>
+        <v>1996.847425232401</v>
       </c>
       <c r="M28" t="n">
-        <v>333.7371249670429</v>
+        <v>2125.535963389478</v>
       </c>
       <c r="N28" t="n">
-        <v>464.8003537416232</v>
+        <v>2256.599192164058</v>
       </c>
       <c r="O28" t="n">
-        <v>569.8421631987436</v>
+        <v>2361.641001621178</v>
       </c>
       <c r="P28" t="n">
-        <v>636.2028954937582</v>
+        <v>2428.001733916193</v>
       </c>
       <c r="Q28" t="n">
-        <v>636.2028954937582</v>
+        <v>2428.001733916193</v>
       </c>
       <c r="R28" t="n">
-        <v>636.2028954937582</v>
+        <v>2428.001733916193</v>
       </c>
       <c r="S28" t="n">
-        <v>636.2028954937582</v>
+        <v>2428.001733916193</v>
       </c>
       <c r="T28" t="n">
-        <v>636.2028954937582</v>
+        <v>2428.001733916193</v>
       </c>
       <c r="U28" t="n">
-        <v>636.2028954937582</v>
+        <v>2428.001733916193</v>
       </c>
       <c r="V28" t="n">
-        <v>636.2028954937582</v>
+        <v>2173.317245710306</v>
       </c>
       <c r="W28" t="n">
-        <v>514.5028045164769</v>
+        <v>1883.900075673346</v>
       </c>
       <c r="X28" t="n">
-        <v>514.5028045164769</v>
+        <v>1840.358873100759</v>
       </c>
       <c r="Y28" t="n">
-        <v>514.5028045164769</v>
+        <v>1840.358873100759</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>898.9630175928626</v>
+        <v>417.5225516187356</v>
       </c>
       <c r="C29" t="n">
-        <v>898.9630175928626</v>
+        <v>48.56003467832387</v>
       </c>
       <c r="D29" t="n">
-        <v>540.697318986112</v>
+        <v>48.56003467832387</v>
       </c>
       <c r="E29" t="n">
-        <v>540.697318986112</v>
+        <v>48.56003467832387</v>
       </c>
       <c r="F29" t="n">
-        <v>540.697318986112</v>
+        <v>48.56003467832387</v>
       </c>
       <c r="G29" t="n">
-        <v>540.697318986112</v>
+        <v>48.56003467832387</v>
       </c>
       <c r="H29" t="n">
-        <v>211.0937944041964</v>
+        <v>48.56003467832387</v>
       </c>
       <c r="I29" t="n">
         <v>48.56003467832387</v>
@@ -6464,16 +6464,16 @@
         <v>144.762326185351</v>
       </c>
       <c r="K29" t="n">
-        <v>409.6894275306259</v>
+        <v>409.6894275306258</v>
       </c>
       <c r="L29" t="n">
-        <v>790.6315507484445</v>
+        <v>790.6315507484444</v>
       </c>
       <c r="M29" t="n">
         <v>1231.109607990317</v>
       </c>
       <c r="N29" t="n">
-        <v>1664.083063158181</v>
+        <v>1664.083063158182</v>
       </c>
       <c r="O29" t="n">
         <v>2027.739981360849</v>
@@ -6485,28 +6485,28 @@
         <v>2428.001733916193</v>
       </c>
       <c r="R29" t="n">
-        <v>2358.198278370248</v>
+        <v>2428.001733916193</v>
       </c>
       <c r="S29" t="n">
-        <v>2176.661031355155</v>
+        <v>2428.001733916193</v>
       </c>
       <c r="T29" t="n">
-        <v>1956.996749561936</v>
+        <v>2208.337452122974</v>
       </c>
       <c r="U29" t="n">
-        <v>1956.996749561936</v>
+        <v>1954.556850271923</v>
       </c>
       <c r="V29" t="n">
-        <v>1625.933862218365</v>
+        <v>1623.493962928353</v>
       </c>
       <c r="W29" t="n">
-        <v>1289.102349568674</v>
+        <v>1567.727481919749</v>
       </c>
       <c r="X29" t="n">
-        <v>1289.102349568674</v>
+        <v>1194.261723658669</v>
       </c>
       <c r="Y29" t="n">
-        <v>898.9630175928626</v>
+        <v>804.1223916828574</v>
       </c>
     </row>
     <row r="30">
@@ -6516,10 +6516,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.7891536896012</v>
+        <v>916.535534906059</v>
       </c>
       <c r="C30" t="n">
-        <v>814.3361244084742</v>
+        <v>742.082505624932</v>
       </c>
       <c r="D30" t="n">
         <v>665.401714747223</v>
@@ -6531,7 +6531,7 @@
         <v>359.6297017686524</v>
       </c>
       <c r="G30" t="n">
-        <v>221.5937423491481</v>
+        <v>221.5937423491482</v>
       </c>
       <c r="H30" t="n">
         <v>114.9355494204657</v>
@@ -6540,52 +6540,52 @@
         <v>48.56003467832387</v>
       </c>
       <c r="J30" t="n">
-        <v>112.1640807652312</v>
+        <v>76.81262990515873</v>
       </c>
       <c r="K30" t="n">
-        <v>347.4943693459743</v>
+        <v>312.1429184859019</v>
       </c>
       <c r="L30" t="n">
-        <v>533.6494465182122</v>
+        <v>689.9779293309316</v>
       </c>
       <c r="M30" t="n">
-        <v>1026.544304488533</v>
+        <v>1182.872787301252</v>
       </c>
       <c r="N30" t="n">
-        <v>1548.191636082361</v>
+        <v>1704.52011889508</v>
       </c>
       <c r="O30" t="n">
-        <v>1958.981354161273</v>
+        <v>2115.309836973992</v>
       </c>
       <c r="P30" t="n">
-        <v>2271.673251103474</v>
+        <v>2428.001733916193</v>
       </c>
       <c r="Q30" t="n">
         <v>2428.001733916193</v>
       </c>
       <c r="R30" t="n">
-        <v>2428.001733916193</v>
+        <v>2369.974849495363</v>
       </c>
       <c r="S30" t="n">
-        <v>2428.001733916193</v>
+        <v>2209.464336090869</v>
       </c>
       <c r="T30" t="n">
-        <v>2228.615936871679</v>
+        <v>2010.078539046355</v>
       </c>
       <c r="U30" t="n">
-        <v>2062.0057546401</v>
+        <v>1781.900635651025</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.853646408357</v>
+        <v>1546.748527419282</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.616289680156</v>
+        <v>1292.511170691081</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.764789474623</v>
+        <v>1292.511170691081</v>
       </c>
       <c r="Y30" t="n">
-        <v>1157.004490709669</v>
+        <v>1084.750871926127</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>636.2028954937582</v>
+        <v>48.56003467832387</v>
       </c>
       <c r="C31" t="n">
-        <v>636.2028954937582</v>
+        <v>48.56003467832387</v>
       </c>
       <c r="D31" t="n">
-        <v>636.2028954937582</v>
+        <v>48.56003467832387</v>
       </c>
       <c r="E31" t="n">
-        <v>636.2028954937582</v>
+        <v>48.56003467832387</v>
       </c>
       <c r="F31" t="n">
-        <v>489.3129479958478</v>
+        <v>48.56003467832387</v>
       </c>
       <c r="G31" t="n">
-        <v>320.2076423685718</v>
+        <v>48.56003467832387</v>
       </c>
       <c r="H31" t="n">
-        <v>161.521231186874</v>
+        <v>48.56003467832387</v>
       </c>
       <c r="I31" t="n">
         <v>48.56003467832387</v>
@@ -6631,40 +6631,40 @@
         <v>333.7371249670429</v>
       </c>
       <c r="N31" t="n">
-        <v>464.8003537416232</v>
+        <v>464.8003537416231</v>
       </c>
       <c r="O31" t="n">
-        <v>569.8421631987436</v>
+        <v>569.8421631987435</v>
       </c>
       <c r="P31" t="n">
-        <v>636.2028954937582</v>
+        <v>636.2028954937581</v>
       </c>
       <c r="Q31" t="n">
-        <v>636.2028954937582</v>
+        <v>636.2028954937581</v>
       </c>
       <c r="R31" t="n">
-        <v>636.2028954937582</v>
+        <v>497.3421647198713</v>
       </c>
       <c r="S31" t="n">
-        <v>636.2028954937582</v>
+        <v>497.3421647198713</v>
       </c>
       <c r="T31" t="n">
-        <v>636.2028954937582</v>
+        <v>497.3421647198713</v>
       </c>
       <c r="U31" t="n">
-        <v>636.2028954937582</v>
+        <v>497.3421647198713</v>
       </c>
       <c r="V31" t="n">
-        <v>636.2028954937582</v>
+        <v>497.3421647198713</v>
       </c>
       <c r="W31" t="n">
-        <v>636.2028954937582</v>
+        <v>497.3421647198713</v>
       </c>
       <c r="X31" t="n">
-        <v>636.2028954937582</v>
+        <v>269.352613821854</v>
       </c>
       <c r="Y31" t="n">
-        <v>636.2028954937582</v>
+        <v>48.56003467832387</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>466.7590488944218</v>
+        <v>2041.401893852071</v>
       </c>
       <c r="C32" t="n">
-        <v>466.7590488944218</v>
+        <v>1755.670490590062</v>
       </c>
       <c r="D32" t="n">
-        <v>466.7590488944218</v>
+        <v>1755.670490590062</v>
       </c>
       <c r="E32" t="n">
-        <v>466.7590488944218</v>
+        <v>1369.882237991817</v>
       </c>
       <c r="F32" t="n">
-        <v>466.7590488944218</v>
+        <v>958.8963332022099</v>
       </c>
       <c r="G32" t="n">
-        <v>48.56003467832387</v>
+        <v>540.697318986112</v>
       </c>
       <c r="H32" t="n">
-        <v>48.56003467832387</v>
+        <v>211.0937944041964</v>
       </c>
       <c r="I32" t="n">
         <v>48.56003467832387</v>
@@ -6722,28 +6722,28 @@
         <v>2428.001733916193</v>
       </c>
       <c r="R32" t="n">
-        <v>2358.198278370248</v>
+        <v>2428.001733916193</v>
       </c>
       <c r="S32" t="n">
-        <v>2176.661031355155</v>
+        <v>2428.001733916193</v>
       </c>
       <c r="T32" t="n">
-        <v>1956.996749561936</v>
+        <v>2428.001733916193</v>
       </c>
       <c r="U32" t="n">
-        <v>1703.216147710885</v>
+        <v>2428.001733916193</v>
       </c>
       <c r="V32" t="n">
-        <v>1372.153260367314</v>
+        <v>2428.001733916193</v>
       </c>
       <c r="W32" t="n">
-        <v>1019.3846050972</v>
+        <v>2428.001733916193</v>
       </c>
       <c r="X32" t="n">
-        <v>645.9188468361201</v>
+        <v>2428.001733916193</v>
       </c>
       <c r="Y32" t="n">
-        <v>466.7590488944218</v>
+        <v>2428.001733916193</v>
       </c>
     </row>
     <row r="33">
@@ -6753,46 +6753,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>708.6840347005261</v>
+        <v>974.4712178863101</v>
       </c>
       <c r="C33" t="n">
-        <v>534.2310054193991</v>
+        <v>800.0181886051831</v>
       </c>
       <c r="D33" t="n">
-        <v>385.2965957581479</v>
+        <v>651.0837789439319</v>
       </c>
       <c r="E33" t="n">
-        <v>226.0591407526924</v>
+        <v>491.8463239384764</v>
       </c>
       <c r="F33" t="n">
-        <v>79.52458277957734</v>
+        <v>345.3117659653614</v>
       </c>
       <c r="G33" t="n">
-        <v>79.52458277957734</v>
+        <v>207.2758065458571</v>
       </c>
       <c r="H33" t="n">
-        <v>48.56003467832387</v>
+        <v>100.6176136171747</v>
       </c>
       <c r="I33" t="n">
         <v>48.56003467832387</v>
       </c>
       <c r="J33" t="n">
-        <v>48.56003467832387</v>
+        <v>112.1640807652311</v>
       </c>
       <c r="K33" t="n">
-        <v>283.890323259067</v>
+        <v>347.4943693459743</v>
       </c>
       <c r="L33" t="n">
-        <v>661.7253341040968</v>
+        <v>725.329380191004</v>
       </c>
       <c r="M33" t="n">
-        <v>1154.620192074417</v>
+        <v>1218.224238161325</v>
       </c>
       <c r="N33" t="n">
-        <v>1676.267523668246</v>
+        <v>1739.871569755153</v>
       </c>
       <c r="O33" t="n">
-        <v>2087.057241747158</v>
+        <v>2150.661287834065</v>
       </c>
       <c r="P33" t="n">
         <v>2271.673251103474</v>
@@ -6801,28 +6801,28 @@
         <v>2428.001733916193</v>
       </c>
       <c r="R33" t="n">
-        <v>2369.974849495363</v>
+        <v>2428.001733916193</v>
       </c>
       <c r="S33" t="n">
-        <v>2209.464336090869</v>
+        <v>2267.491220511699</v>
       </c>
       <c r="T33" t="n">
-        <v>2010.078539046355</v>
+        <v>2068.105423467185</v>
       </c>
       <c r="U33" t="n">
-        <v>1781.900635651025</v>
+        <v>1839.927520071855</v>
       </c>
       <c r="V33" t="n">
-        <v>1546.748527419282</v>
+        <v>1604.775411840113</v>
       </c>
       <c r="W33" t="n">
-        <v>1292.511170691081</v>
+        <v>1350.538055111911</v>
       </c>
       <c r="X33" t="n">
-        <v>1084.659670485548</v>
+        <v>1142.686554906378</v>
       </c>
       <c r="Y33" t="n">
-        <v>876.8993717205942</v>
+        <v>1142.686554906378</v>
       </c>
     </row>
     <row r="34">
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>48.56003467832387</v>
+        <v>233.7618515199883</v>
       </c>
       <c r="C34" t="n">
-        <v>48.56003467832387</v>
+        <v>64.82566859208134</v>
       </c>
       <c r="D34" t="n">
         <v>48.56003467832387</v>
@@ -6868,40 +6868,40 @@
         <v>333.7371249670429</v>
       </c>
       <c r="N34" t="n">
-        <v>464.8003537416232</v>
+        <v>464.8003537416231</v>
       </c>
       <c r="O34" t="n">
-        <v>569.8421631987436</v>
+        <v>569.8421631987435</v>
       </c>
       <c r="P34" t="n">
-        <v>636.2028954937582</v>
+        <v>636.2028954937581</v>
       </c>
       <c r="Q34" t="n">
-        <v>597.9513406872027</v>
+        <v>636.2028954937581</v>
       </c>
       <c r="R34" t="n">
-        <v>445.0607772277554</v>
+        <v>636.2028954937581</v>
       </c>
       <c r="S34" t="n">
-        <v>228.9336832652689</v>
+        <v>636.2028954937581</v>
       </c>
       <c r="T34" t="n">
-        <v>228.9336832652689</v>
+        <v>636.2028954937581</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9336832652689</v>
+        <v>636.2028954937581</v>
       </c>
       <c r="V34" t="n">
-        <v>228.9336832652689</v>
+        <v>636.2028954937581</v>
       </c>
       <c r="W34" t="n">
-        <v>228.9336832652689</v>
+        <v>636.2028954937581</v>
       </c>
       <c r="X34" t="n">
-        <v>48.56003467832387</v>
+        <v>636.2028954937581</v>
       </c>
       <c r="Y34" t="n">
-        <v>48.56003467832387</v>
+        <v>415.410316350228</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>297.6239771365114</v>
+        <v>366.1708478150265</v>
       </c>
       <c r="C35" t="n">
-        <v>297.6239771365114</v>
+        <v>366.1708478150265</v>
       </c>
       <c r="D35" t="n">
-        <v>297.6239771365114</v>
+        <v>366.1708478150265</v>
       </c>
       <c r="E35" t="n">
-        <v>297.6239771365114</v>
+        <v>366.1708478150265</v>
       </c>
       <c r="F35" t="n">
-        <v>297.6239771365114</v>
+        <v>366.1708478150265</v>
       </c>
       <c r="G35" t="n">
-        <v>36.56732323311092</v>
+        <v>366.1708478150265</v>
       </c>
       <c r="H35" t="n">
         <v>36.56732323311092</v>
@@ -6935,52 +6935,52 @@
         <v>36.56732323311092</v>
       </c>
       <c r="J35" t="n">
-        <v>132.7696147401381</v>
+        <v>36.56732323311092</v>
       </c>
       <c r="K35" t="n">
-        <v>397.6967160854128</v>
+        <v>301.4944245783857</v>
       </c>
       <c r="L35" t="n">
-        <v>778.6388393032314</v>
+        <v>682.4365477962043</v>
       </c>
       <c r="M35" t="n">
-        <v>778.6388393032314</v>
+        <v>759.0374050067263</v>
       </c>
       <c r="N35" t="n">
-        <v>1211.612294471096</v>
+        <v>1192.010860174591</v>
       </c>
       <c r="O35" t="n">
-        <v>1575.269212673763</v>
+        <v>1555.667778377259</v>
       </c>
       <c r="P35" t="n">
-        <v>1700.802792378489</v>
+        <v>1828.366161655546</v>
       </c>
       <c r="Q35" t="n">
         <v>1828.366161655546</v>
       </c>
       <c r="R35" t="n">
-        <v>1828.366161655546</v>
+        <v>1758.562706109601</v>
       </c>
       <c r="S35" t="n">
-        <v>1828.366161655546</v>
+        <v>1577.025459094507</v>
       </c>
       <c r="T35" t="n">
-        <v>1608.701879862327</v>
+        <v>1577.025459094507</v>
       </c>
       <c r="U35" t="n">
-        <v>1354.921278011276</v>
+        <v>1423.468148689791</v>
       </c>
       <c r="V35" t="n">
-        <v>1023.858390667706</v>
+        <v>1092.405261346221</v>
       </c>
       <c r="W35" t="n">
-        <v>671.0897353975913</v>
+        <v>739.6366060761064</v>
       </c>
       <c r="X35" t="n">
-        <v>297.6239771365114</v>
+        <v>366.1708478150265</v>
       </c>
       <c r="Y35" t="n">
-        <v>297.6239771365114</v>
+        <v>366.1708478150265</v>
       </c>
     </row>
     <row r="36">
@@ -6990,49 +6990,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>695.6852200345788</v>
+        <v>555.7637636605318</v>
       </c>
       <c r="C36" t="n">
-        <v>695.6852200345788</v>
+        <v>381.3107343794048</v>
       </c>
       <c r="D36" t="n">
-        <v>546.7508103733276</v>
+        <v>232.3763247181536</v>
       </c>
       <c r="E36" t="n">
-        <v>387.513355367872</v>
+        <v>73.13886971269807</v>
       </c>
       <c r="F36" t="n">
-        <v>240.978797394757</v>
+        <v>36.56732323311092</v>
       </c>
       <c r="G36" t="n">
-        <v>102.9428379752528</v>
+        <v>36.56732323311092</v>
       </c>
       <c r="H36" t="n">
-        <v>102.9428379752528</v>
+        <v>36.56732323311092</v>
       </c>
       <c r="I36" t="n">
         <v>36.56732323311092</v>
       </c>
       <c r="J36" t="n">
-        <v>36.56732323311092</v>
+        <v>100.1713693200182</v>
       </c>
       <c r="K36" t="n">
-        <v>271.897611813854</v>
+        <v>335.5016579007614</v>
       </c>
       <c r="L36" t="n">
-        <v>649.7326226588838</v>
+        <v>713.336668745791</v>
       </c>
       <c r="M36" t="n">
-        <v>1102.253247668632</v>
+        <v>1165.857293755539</v>
       </c>
       <c r="N36" t="n">
-        <v>1417.576443576634</v>
+        <v>1261.247960763914</v>
       </c>
       <c r="O36" t="n">
-        <v>1828.366161655546</v>
+        <v>1672.037678842826</v>
       </c>
       <c r="P36" t="n">
-        <v>1828.366161655546</v>
+        <v>1672.037678842826</v>
       </c>
       <c r="Q36" t="n">
         <v>1828.366161655546</v>
@@ -7041,25 +7041,25 @@
         <v>1828.366161655546</v>
       </c>
       <c r="S36" t="n">
-        <v>1667.855648251052</v>
+        <v>1828.366161655546</v>
       </c>
       <c r="T36" t="n">
-        <v>1621.104088595385</v>
+        <v>1628.980364611031</v>
       </c>
       <c r="U36" t="n">
-        <v>1392.926185200056</v>
+        <v>1628.980364611031</v>
       </c>
       <c r="V36" t="n">
-        <v>1157.774076968313</v>
+        <v>1393.828256379288</v>
       </c>
       <c r="W36" t="n">
-        <v>903.5367202401117</v>
+        <v>1139.590899651087</v>
       </c>
       <c r="X36" t="n">
-        <v>695.6852200345788</v>
+        <v>931.7393994455538</v>
       </c>
       <c r="Y36" t="n">
-        <v>695.6852200345788</v>
+        <v>723.9791006805999</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>205.5035061610178</v>
+        <v>1240.723300840111</v>
       </c>
       <c r="C37" t="n">
-        <v>36.56732323311092</v>
+        <v>1240.723300840111</v>
       </c>
       <c r="D37" t="n">
-        <v>36.56732323311092</v>
+        <v>1240.723300840111</v>
       </c>
       <c r="E37" t="n">
-        <v>36.56732323311092</v>
+        <v>1240.723300840111</v>
       </c>
       <c r="F37" t="n">
-        <v>36.56732323311092</v>
+        <v>1240.723300840111</v>
       </c>
       <c r="G37" t="n">
-        <v>36.56732323311092</v>
+        <v>1240.723300840111</v>
       </c>
       <c r="H37" t="n">
-        <v>36.56732323311092</v>
+        <v>1240.723300840111</v>
       </c>
       <c r="I37" t="n">
-        <v>36.56732323311092</v>
+        <v>1240.723300840111</v>
       </c>
       <c r="J37" t="n">
-        <v>36.56732323311092</v>
+        <v>1240.723300840111</v>
       </c>
       <c r="K37" t="n">
-        <v>80.85564141861695</v>
+        <v>1285.011619025617</v>
       </c>
       <c r="L37" t="n">
-        <v>193.0558753647532</v>
+        <v>1397.211852971754</v>
       </c>
       <c r="M37" t="n">
-        <v>321.74441352183</v>
+        <v>1525.90039112883</v>
       </c>
       <c r="N37" t="n">
-        <v>452.8076422964102</v>
+        <v>1656.963619903411</v>
       </c>
       <c r="O37" t="n">
-        <v>557.8494517535307</v>
+        <v>1762.005429360531</v>
       </c>
       <c r="P37" t="n">
-        <v>624.2101840485454</v>
+        <v>1828.366161655546</v>
       </c>
       <c r="Q37" t="n">
-        <v>624.2101840485454</v>
+        <v>1828.366161655546</v>
       </c>
       <c r="R37" t="n">
-        <v>471.3196205890982</v>
+        <v>1828.366161655546</v>
       </c>
       <c r="S37" t="n">
-        <v>255.1925266266117</v>
+        <v>1828.366161655546</v>
       </c>
       <c r="T37" t="n">
-        <v>255.1925266266117</v>
+        <v>1828.366161655546</v>
       </c>
       <c r="U37" t="n">
-        <v>255.1925266266117</v>
+        <v>1828.366161655546</v>
       </c>
       <c r="V37" t="n">
-        <v>255.1925266266117</v>
+        <v>1758.130021775089</v>
       </c>
       <c r="W37" t="n">
-        <v>255.1925266266117</v>
+        <v>1468.712851738129</v>
       </c>
       <c r="X37" t="n">
-        <v>255.1925266266117</v>
+        <v>1240.723300840111</v>
       </c>
       <c r="Y37" t="n">
-        <v>255.1925266266117</v>
+        <v>1240.723300840111</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1608.701879862327</v>
+        <v>557.366781565734</v>
       </c>
       <c r="C38" t="n">
-        <v>1608.701879862327</v>
+        <v>557.366781565734</v>
       </c>
       <c r="D38" t="n">
-        <v>1608.701879862327</v>
+        <v>199.1010829589835</v>
       </c>
       <c r="E38" t="n">
-        <v>1222.913627264083</v>
+        <v>199.1010829589835</v>
       </c>
       <c r="F38" t="n">
-        <v>811.9277224744756</v>
+        <v>199.1010829589835</v>
       </c>
       <c r="G38" t="n">
-        <v>528.7046075408991</v>
+        <v>199.1010829589835</v>
       </c>
       <c r="H38" t="n">
         <v>199.1010829589835</v>
@@ -7172,25 +7172,25 @@
         <v>36.56732323311092</v>
       </c>
       <c r="J38" t="n">
-        <v>132.7696147401381</v>
+        <v>132.769614740138</v>
       </c>
       <c r="K38" t="n">
-        <v>132.7696147401381</v>
+        <v>397.6967160854128</v>
       </c>
       <c r="L38" t="n">
-        <v>190.9959784877972</v>
+        <v>778.6388393032314</v>
       </c>
       <c r="M38" t="n">
-        <v>631.4740357296702</v>
+        <v>1219.116896545104</v>
       </c>
       <c r="N38" t="n">
-        <v>1064.447490897534</v>
+        <v>1652.090351712969</v>
       </c>
       <c r="O38" t="n">
-        <v>1428.104409100202</v>
+        <v>1828.366161655546</v>
       </c>
       <c r="P38" t="n">
-        <v>1700.802792378489</v>
+        <v>1828.366161655546</v>
       </c>
       <c r="Q38" t="n">
         <v>1828.366161655546</v>
@@ -7199,25 +7199,25 @@
         <v>1828.366161655546</v>
       </c>
       <c r="S38" t="n">
-        <v>1828.366161655546</v>
+        <v>1752.013884529386</v>
       </c>
       <c r="T38" t="n">
-        <v>1608.701879862327</v>
+        <v>1532.349602736168</v>
       </c>
       <c r="U38" t="n">
-        <v>1608.701879862327</v>
+        <v>1278.569000885116</v>
       </c>
       <c r="V38" t="n">
-        <v>1608.701879862327</v>
+        <v>947.5061135415457</v>
       </c>
       <c r="W38" t="n">
-        <v>1608.701879862327</v>
+        <v>947.5061135415457</v>
       </c>
       <c r="X38" t="n">
-        <v>1608.701879862327</v>
+        <v>947.5061135415457</v>
       </c>
       <c r="Y38" t="n">
-        <v>1608.701879862327</v>
+        <v>557.366781565734</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>426.3302769176311</v>
+        <v>335.2906838807764</v>
       </c>
       <c r="C39" t="n">
-        <v>251.877247636504</v>
+        <v>160.8376545996494</v>
       </c>
       <c r="D39" t="n">
-        <v>102.9428379752528</v>
+        <v>160.8376545996494</v>
       </c>
       <c r="E39" t="n">
-        <v>102.9428379752528</v>
+        <v>160.8376545996494</v>
       </c>
       <c r="F39" t="n">
-        <v>102.9428379752528</v>
+        <v>160.8376545996494</v>
       </c>
       <c r="G39" t="n">
-        <v>102.9428379752528</v>
+        <v>36.56732323311092</v>
       </c>
       <c r="H39" t="n">
-        <v>102.9428379752528</v>
+        <v>36.56732323311092</v>
       </c>
       <c r="I39" t="n">
         <v>36.56732323311092</v>
       </c>
       <c r="J39" t="n">
-        <v>36.56732323311092</v>
+        <v>100.1713693200182</v>
       </c>
       <c r="K39" t="n">
-        <v>36.56732323311092</v>
+        <v>335.5016579007614</v>
       </c>
       <c r="L39" t="n">
-        <v>47.27039222771607</v>
+        <v>713.336668745791</v>
       </c>
       <c r="M39" t="n">
-        <v>499.7910172374637</v>
+        <v>1165.857293755539</v>
       </c>
       <c r="N39" t="n">
-        <v>952.3116422472112</v>
+        <v>1618.377918765286</v>
       </c>
       <c r="O39" t="n">
-        <v>1363.101360326123</v>
+        <v>1828.366161655546</v>
       </c>
       <c r="P39" t="n">
-        <v>1675.793257268324</v>
+        <v>1828.366161655546</v>
       </c>
       <c r="Q39" t="n">
         <v>1828.366161655546</v>
       </c>
       <c r="R39" t="n">
-        <v>1770.339277234716</v>
+        <v>1828.366161655546</v>
       </c>
       <c r="S39" t="n">
-        <v>1609.828763830222</v>
+        <v>1667.855648251052</v>
       </c>
       <c r="T39" t="n">
-        <v>1410.442966785707</v>
+        <v>1468.469851206537</v>
       </c>
       <c r="U39" t="n">
-        <v>1182.265063390378</v>
+        <v>1240.291947811207</v>
       </c>
       <c r="V39" t="n">
-        <v>947.112955158635</v>
+        <v>1005.139839579465</v>
       </c>
       <c r="W39" t="n">
-        <v>692.8755984304335</v>
+        <v>750.9024828512631</v>
       </c>
       <c r="X39" t="n">
-        <v>634.090575682585</v>
+        <v>543.0509826457303</v>
       </c>
       <c r="Y39" t="n">
-        <v>426.3302769176311</v>
+        <v>335.2906838807764</v>
       </c>
     </row>
     <row r="40">
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>585.9586292419899</v>
+        <v>624.2101840485451</v>
       </c>
       <c r="C40" t="n">
-        <v>585.9586292419899</v>
+        <v>502.679215770633</v>
       </c>
       <c r="D40" t="n">
-        <v>435.8419898296542</v>
+        <v>352.5625763582973</v>
       </c>
       <c r="E40" t="n">
-        <v>287.928896247261</v>
+        <v>352.5625763582973</v>
       </c>
       <c r="F40" t="n">
         <v>205.672628860387</v>
@@ -7333,49 +7333,49 @@
         <v>36.56732323311092</v>
       </c>
       <c r="K40" t="n">
-        <v>80.85564141861695</v>
+        <v>80.85564141861693</v>
       </c>
       <c r="L40" t="n">
-        <v>193.0558753647532</v>
+        <v>193.0558753647531</v>
       </c>
       <c r="M40" t="n">
-        <v>321.74441352183</v>
+        <v>321.7444135218299</v>
       </c>
       <c r="N40" t="n">
-        <v>452.8076422964102</v>
+        <v>452.8076422964101</v>
       </c>
       <c r="O40" t="n">
-        <v>557.8494517535307</v>
+        <v>557.8494517535305</v>
       </c>
       <c r="P40" t="n">
-        <v>624.2101840485454</v>
+        <v>624.2101840485451</v>
       </c>
       <c r="Q40" t="n">
-        <v>585.9586292419899</v>
+        <v>624.2101840485451</v>
       </c>
       <c r="R40" t="n">
-        <v>585.9586292419899</v>
+        <v>624.2101840485451</v>
       </c>
       <c r="S40" t="n">
-        <v>585.9586292419899</v>
+        <v>624.2101840485451</v>
       </c>
       <c r="T40" t="n">
-        <v>585.9586292419899</v>
+        <v>624.2101840485451</v>
       </c>
       <c r="U40" t="n">
-        <v>585.9586292419899</v>
+        <v>624.2101840485451</v>
       </c>
       <c r="V40" t="n">
-        <v>585.9586292419899</v>
+        <v>624.2101840485451</v>
       </c>
       <c r="W40" t="n">
-        <v>585.9586292419899</v>
+        <v>624.2101840485451</v>
       </c>
       <c r="X40" t="n">
-        <v>585.9586292419899</v>
+        <v>624.2101840485451</v>
       </c>
       <c r="Y40" t="n">
-        <v>585.9586292419899</v>
+        <v>624.2101840485451</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>735.1333647554383</v>
+        <v>1051.626989615612</v>
       </c>
       <c r="C41" t="n">
-        <v>366.1708478150265</v>
+        <v>833.3414806209628</v>
       </c>
       <c r="D41" t="n">
-        <v>366.1708478150265</v>
+        <v>833.3414806209628</v>
       </c>
       <c r="E41" t="n">
-        <v>366.1708478150265</v>
+        <v>447.5532280227185</v>
       </c>
       <c r="F41" t="n">
-        <v>366.1708478150265</v>
+        <v>36.56732323311092</v>
       </c>
       <c r="G41" t="n">
-        <v>366.1708478150265</v>
+        <v>36.56732323311092</v>
       </c>
       <c r="H41" t="n">
         <v>36.56732323311092</v>
@@ -7412,19 +7412,19 @@
         <v>36.56732323311092</v>
       </c>
       <c r="K41" t="n">
-        <v>301.4944245783857</v>
+        <v>36.56732323311092</v>
       </c>
       <c r="L41" t="n">
-        <v>682.4365477962044</v>
+        <v>417.5094464509295</v>
       </c>
       <c r="M41" t="n">
-        <v>1122.914605038077</v>
+        <v>857.9875036928023</v>
       </c>
       <c r="N41" t="n">
-        <v>1464.709243452878</v>
+        <v>1290.960958860667</v>
       </c>
       <c r="O41" t="n">
-        <v>1828.366161655546</v>
+        <v>1654.617877063335</v>
       </c>
       <c r="P41" t="n">
         <v>1828.366161655546</v>
@@ -7436,25 +7436,25 @@
         <v>1828.366161655546</v>
       </c>
       <c r="S41" t="n">
-        <v>1765.653138646423</v>
+        <v>1828.366161655546</v>
       </c>
       <c r="T41" t="n">
-        <v>1765.653138646423</v>
+        <v>1828.366161655546</v>
       </c>
       <c r="U41" t="n">
-        <v>1511.872536795372</v>
+        <v>1828.366161655546</v>
       </c>
       <c r="V41" t="n">
-        <v>1511.872536795372</v>
+        <v>1828.366161655546</v>
       </c>
       <c r="W41" t="n">
-        <v>1511.872536795372</v>
+        <v>1828.366161655546</v>
       </c>
       <c r="X41" t="n">
-        <v>1511.872536795372</v>
+        <v>1828.366161655546</v>
       </c>
       <c r="Y41" t="n">
-        <v>1121.73320481956</v>
+        <v>1438.226829679734</v>
       </c>
     </row>
     <row r="42">
@@ -7464,46 +7464,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>802.3434129632612</v>
+        <v>526.9716573097173</v>
       </c>
       <c r="C42" t="n">
-        <v>802.3434129632612</v>
+        <v>352.5186280285903</v>
       </c>
       <c r="D42" t="n">
-        <v>653.40900330201</v>
+        <v>203.5842183673391</v>
       </c>
       <c r="E42" t="n">
-        <v>494.1715482965545</v>
+        <v>44.34676336188357</v>
       </c>
       <c r="F42" t="n">
-        <v>347.6369903234395</v>
+        <v>36.56732323311092</v>
       </c>
       <c r="G42" t="n">
-        <v>209.6010309039352</v>
+        <v>36.56732323311092</v>
       </c>
       <c r="H42" t="n">
-        <v>102.9428379752528</v>
+        <v>36.56732323311092</v>
       </c>
       <c r="I42" t="n">
         <v>36.56732323311092</v>
       </c>
       <c r="J42" t="n">
-        <v>100.1713693200182</v>
+        <v>36.56732323311092</v>
       </c>
       <c r="K42" t="n">
-        <v>335.5016579007614</v>
+        <v>36.56732323311092</v>
       </c>
       <c r="L42" t="n">
-        <v>713.336668745791</v>
+        <v>414.4023340781407</v>
       </c>
       <c r="M42" t="n">
-        <v>1165.857293755539</v>
+        <v>866.9229590878882</v>
       </c>
       <c r="N42" t="n">
-        <v>1212.955674749249</v>
+        <v>1104.884546634433</v>
       </c>
       <c r="O42" t="n">
-        <v>1623.745392828161</v>
+        <v>1515.674264713345</v>
       </c>
       <c r="P42" t="n">
         <v>1828.366161655546</v>
@@ -7521,19 +7521,19 @@
         <v>1828.366161655546</v>
       </c>
       <c r="U42" t="n">
-        <v>1828.366161655546</v>
+        <v>1600.188258260216</v>
       </c>
       <c r="V42" t="n">
-        <v>1593.214053423803</v>
+        <v>1365.036150028474</v>
       </c>
       <c r="W42" t="n">
-        <v>1386.170548953816</v>
+        <v>1110.798793300272</v>
       </c>
       <c r="X42" t="n">
-        <v>1178.319048748283</v>
+        <v>902.9472930947393</v>
       </c>
       <c r="Y42" t="n">
-        <v>970.5587499833293</v>
+        <v>695.1869943297854</v>
       </c>
     </row>
     <row r="43">
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>80.65217009594727</v>
+        <v>36.56732323311092</v>
       </c>
       <c r="C43" t="n">
-        <v>80.65217009594727</v>
+        <v>36.56732323311092</v>
       </c>
       <c r="D43" t="n">
         <v>36.56732323311092</v>
@@ -7570,49 +7570,49 @@
         <v>36.56732323311092</v>
       </c>
       <c r="K43" t="n">
-        <v>80.85564141861695</v>
+        <v>80.85564141861693</v>
       </c>
       <c r="L43" t="n">
-        <v>193.0558753647532</v>
+        <v>193.0558753647531</v>
       </c>
       <c r="M43" t="n">
-        <v>321.74441352183</v>
+        <v>321.7444135218299</v>
       </c>
       <c r="N43" t="n">
-        <v>452.8076422964102</v>
+        <v>452.8076422964101</v>
       </c>
       <c r="O43" t="n">
-        <v>557.8494517535307</v>
+        <v>557.8494517535305</v>
       </c>
       <c r="P43" t="n">
-        <v>624.2101840485454</v>
+        <v>624.2101840485451</v>
       </c>
       <c r="Q43" t="n">
-        <v>585.9586292419899</v>
+        <v>624.2101840485451</v>
       </c>
       <c r="R43" t="n">
-        <v>585.9586292419899</v>
+        <v>624.2101840485451</v>
       </c>
       <c r="S43" t="n">
-        <v>369.8315352795034</v>
+        <v>408.0830900860586</v>
       </c>
       <c r="T43" t="n">
-        <v>369.8315352795034</v>
+        <v>291.2518114389978</v>
       </c>
       <c r="U43" t="n">
-        <v>80.65217009594727</v>
+        <v>291.2518114389978</v>
       </c>
       <c r="V43" t="n">
-        <v>80.65217009594727</v>
+        <v>36.56732323311092</v>
       </c>
       <c r="W43" t="n">
-        <v>80.65217009594727</v>
+        <v>36.56732323311092</v>
       </c>
       <c r="X43" t="n">
-        <v>80.65217009594727</v>
+        <v>36.56732323311092</v>
       </c>
       <c r="Y43" t="n">
-        <v>80.65217009594727</v>
+        <v>36.56732323311092</v>
       </c>
     </row>
     <row r="44">
@@ -8687,28 +8687,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>71.92258334679384</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>206.4511729643318</v>
       </c>
       <c r="L11" t="n">
-        <v>32.8711910981084</v>
+        <v>32.87119109810845</v>
       </c>
       <c r="M11" t="n">
         <v>154.495096010648</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>46.67793626755217</v>
       </c>
       <c r="O11" t="n">
-        <v>157.3219289488422</v>
+        <v>13.46996085601009</v>
       </c>
       <c r="P11" t="n">
         <v>196.2546888343343</v>
       </c>
       <c r="Q11" t="n">
-        <v>83.46310250126157</v>
+        <v>83.4631025012616</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>61.84452414151258</v>
+        <v>61.84452414151259</v>
       </c>
       <c r="K12" t="n">
-        <v>138.441312743225</v>
+        <v>26.75787480980775</v>
       </c>
       <c r="L12" t="n">
-        <v>139.0977122625304</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,10 +8784,10 @@
         <v>128.8321031712731</v>
       </c>
       <c r="P12" t="n">
-        <v>2.612367688219109</v>
+        <v>103.4846248190049</v>
       </c>
       <c r="Q12" t="n">
-        <v>52.16972933916271</v>
+        <v>202.0786224043246</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8851,7 +8851,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L13" t="n">
-        <v>162.4747015415544</v>
+        <v>162.4747015415545</v>
       </c>
       <c r="M13" t="n">
         <v>178.5096609094456</v>
@@ -8863,7 +8863,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P13" t="n">
-        <v>135.006563314041</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8924,25 +8924,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>86.92266328098279</v>
+        <v>71.92258334679386</v>
       </c>
       <c r="K14" t="n">
-        <v>206.4511729643318</v>
+        <v>56.54227989916998</v>
       </c>
       <c r="L14" t="n">
-        <v>32.8711910981084</v>
+        <v>32.87119109810845</v>
       </c>
       <c r="M14" t="n">
-        <v>154.495096010648</v>
+        <v>19.58628287967513</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>149.9088930651619</v>
       </c>
       <c r="O14" t="n">
         <v>163.3788539211719</v>
       </c>
       <c r="P14" t="n">
-        <v>46.34579576917247</v>
+        <v>196.2546888343343</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9003,22 +9003,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>61.84452414151259</v>
       </c>
       <c r="K15" t="n">
-        <v>26.75787480980772</v>
+        <v>26.75787480980775</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>53.29813491491696</v>
       </c>
       <c r="M15" t="n">
-        <v>15.54895603800079</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>102.334770849293</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>128.8321031712731</v>
       </c>
       <c r="P15" t="n">
         <v>152.5212607533809</v>
@@ -9091,7 +9091,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M16" t="n">
-        <v>178.5096609094456</v>
+        <v>178.5096609094457</v>
       </c>
       <c r="N16" t="n">
         <v>171.8177168444618</v>
@@ -9161,28 +9161,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>71.92258334679384</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>206.4511729643318</v>
+        <v>56.54227989916998</v>
       </c>
       <c r="L17" t="n">
-        <v>176.7231591909405</v>
+        <v>32.87119109810845</v>
       </c>
       <c r="M17" t="n">
-        <v>4.586202945486122</v>
+        <v>154.495096010648</v>
       </c>
       <c r="N17" t="n">
         <v>149.9088930651619</v>
       </c>
       <c r="O17" t="n">
-        <v>163.3788539211719</v>
+        <v>81.2049020300809</v>
       </c>
       <c r="P17" t="n">
-        <v>46.34579576917247</v>
+        <v>46.3457957691725</v>
       </c>
       <c r="Q17" t="n">
-        <v>83.46310250126157</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,25 +9240,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>61.84452414151258</v>
+        <v>61.84452414151259</v>
       </c>
       <c r="K18" t="n">
-        <v>26.75787480980772</v>
+        <v>26.75787480980775</v>
       </c>
       <c r="L18" t="n">
         <v>139.0977122625304</v>
       </c>
       <c r="M18" t="n">
-        <v>64.10931571754841</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>128.8321031712731</v>
+        <v>43.03252582365973</v>
       </c>
       <c r="P18" t="n">
-        <v>2.612367688219109</v>
+        <v>152.5212607533809</v>
       </c>
       <c r="Q18" t="n">
         <v>202.0786224043246</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>90.3824991181139</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9489,7 +9489,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>443.6338381212581</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>52.16972933916271</v>
+        <v>52.16972933916274</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>228.7567007902832</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9732,10 +9732,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>282.7542324176418</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>52.16972933916271</v>
+        <v>52.16972933916274</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>52.16972933916271</v>
+        <v>52.16972933916274</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>90.38249911811346</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>177.2242506844776</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>52.16972933916274</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10367,7 +10367,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599046</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>61.84452414151258</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10443,7 +10443,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>189.0931852198517</v>
+        <v>124.8466740209556</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>71.92258334679386</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>4.586202945486122</v>
+        <v>81.9608061884377</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10601,10 +10601,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>173.1473914305118</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>83.4631025012616</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>61.84452414151258</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10674,16 +10674,16 @@
         <v>424.9230102544716</v>
       </c>
       <c r="N36" t="n">
-        <v>270.9341564790831</v>
+        <v>48.78008688350032</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>2.612367688219109</v>
+        <v>2.612367688219138</v>
       </c>
       <c r="Q36" t="n">
-        <v>52.16972933916271</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,10 +10823,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>56.54227989916996</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>91.68569993412777</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10835,13 +10835,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>191.5263345353809</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>46.3457957691725</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>83.4631025012616</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>61.84452414151258</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>26.75787480980772</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>424.9230102544716</v>
       </c>
       <c r="N39" t="n">
-        <v>409.5174181980177</v>
+        <v>409.5174181980176</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>191.0325463588987</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>2.612367688219138</v>
       </c>
       <c r="Q39" t="n">
-        <v>206.2837741747403</v>
+        <v>52.16972933916274</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,10 +11057,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>71.92258334679384</v>
+        <v>71.92258334679386</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>56.54227989916998</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11069,16 +11069,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>345.2471095098998</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>46.34579576917247</v>
+        <v>221.8491135390827</v>
       </c>
       <c r="Q41" t="n">
-        <v>83.46310250126157</v>
+        <v>83.4631025012616</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>61.84452414151259</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>26.75787480980775</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11148,16 +11148,16 @@
         <v>424.9230102544716</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>192.7911177301358</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>209.300012968406</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>52.16972933916271</v>
+        <v>52.16972933916274</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,28 +11294,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>71.92258334679384</v>
+        <v>71.92258334679386</v>
       </c>
       <c r="K44" t="n">
-        <v>56.54227989916996</v>
+        <v>56.54227989916998</v>
       </c>
       <c r="L44" t="n">
-        <v>32.8711910981084</v>
+        <v>32.87119109810845</v>
       </c>
       <c r="M44" t="n">
-        <v>4.586202945486122</v>
+        <v>4.586202945486178</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>13.46996085601006</v>
+        <v>13.46996085601009</v>
       </c>
       <c r="P44" t="n">
-        <v>46.34579576917247</v>
+        <v>46.3457957691725</v>
       </c>
       <c r="Q44" t="n">
-        <v>83.46310250126157</v>
+        <v>83.4631025012616</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>61.84452414151258</v>
+        <v>61.84452414151259</v>
       </c>
       <c r="K45" t="n">
-        <v>26.75787480980772</v>
+        <v>26.75787480980775</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,10 +11391,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>2.612367688219109</v>
+        <v>2.612367688219138</v>
       </c>
       <c r="Q45" t="n">
-        <v>52.16972933916271</v>
+        <v>52.16972933916274</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11455,22 +11455,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>62.00809140979796</v>
+        <v>62.00809140979797</v>
       </c>
       <c r="L46" t="n">
-        <v>49.14113189899257</v>
+        <v>49.14113189899258</v>
       </c>
       <c r="M46" t="n">
-        <v>48.52123852856002</v>
+        <v>48.52123852856003</v>
       </c>
       <c r="N46" t="n">
-        <v>39.43061707215854</v>
+        <v>39.43061707215855</v>
       </c>
       <c r="O46" t="n">
-        <v>56.93882853040726</v>
+        <v>56.93882853040728</v>
       </c>
       <c r="P46" t="n">
-        <v>67.97552059180407</v>
+        <v>67.97552059180408</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23264,19 +23264,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>232.0214770070999</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>256.9671526765496</v>
+        <v>274.836292729917</v>
       </c>
       <c r="G11" t="n">
         <v>264.1081310087751</v>
       </c>
       <c r="H11" t="n">
-        <v>194.2677363243019</v>
+        <v>176.3985962709347</v>
       </c>
       <c r="I11" t="n">
-        <v>160.9084221286138</v>
+        <v>10.999529063452</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,7 +23303,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>69.10542099048568</v>
+        <v>69.1054209904857</v>
       </c>
       <c r="S11" t="n">
         <v>179.7218745449422</v>
@@ -23334,19 +23334,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16.62429058470551</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>22.7996059231539</v>
+        <v>99.07699739894063</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>7.736187390239138</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>136.6555998253092</v>
@@ -23355,7 +23355,7 @@
         <v>105.5916109993956</v>
       </c>
       <c r="I12" t="n">
-        <v>65.71175959472041</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,7 +23382,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>57.4466155766215</v>
+        <v>57.44661557662151</v>
       </c>
       <c r="S12" t="n">
         <v>158.905408270449</v>
@@ -23391,7 +23391,7 @@
         <v>197.3919390740697</v>
       </c>
       <c r="U12" t="n">
-        <v>91.39254384905846</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4142525710033</v>
+        <v>17.50535950584145</v>
       </c>
       <c r="H13" t="n">
-        <v>7.190654004718965</v>
+        <v>7.190654004718994</v>
       </c>
       <c r="I13" t="n">
-        <v>138.1067275372333</v>
+        <v>1.579129483208305</v>
       </c>
       <c r="J13" t="n">
         <v>52.58459624356988</v>
@@ -23458,13 +23458,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R13" t="n">
-        <v>52.7030990293177</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S13" t="n">
-        <v>64.05692995769979</v>
+        <v>213.9658230228617</v>
       </c>
       <c r="T13" t="n">
         <v>225.481393154608</v>
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>232.8249485983187</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>215.3639987058457</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23540,28 +23540,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>69.10542099048568</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>179.7218745449422</v>
+        <v>29.81298147978043</v>
       </c>
       <c r="T14" t="n">
-        <v>217.4676389752864</v>
+        <v>67.5587459101246</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2427958325407</v>
+        <v>101.3339027673788</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>264.8179264488261</v>
       </c>
       <c r="W14" t="n">
-        <v>199.3320756522512</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>254.1981856442591</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.309349791604</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -23583,16 +23583,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H15" t="n">
         <v>105.5916109993956</v>
       </c>
       <c r="I15" t="n">
-        <v>65.71175959472041</v>
+        <v>65.71175959472042</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,19 +23619,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>57.4466155766215</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>158.905408270449</v>
+        <v>8.996515205287238</v>
       </c>
       <c r="T15" t="n">
-        <v>47.48304600890788</v>
+        <v>47.48304600890791</v>
       </c>
       <c r="U15" t="n">
-        <v>75.98723129621422</v>
+        <v>75.98723129621425</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>158.2074497142523</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23656,25 +23656,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>54.16372572677815</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4142525710033</v>
+        <v>17.50535950584145</v>
       </c>
       <c r="H16" t="n">
-        <v>153.9103260875469</v>
+        <v>7.190654004718994</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>52.58459624356988</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>151.3616578248528</v>
       </c>
       <c r="S16" t="n">
-        <v>213.9658230228616</v>
+        <v>213.9658230228617</v>
       </c>
       <c r="T16" t="n">
         <v>225.481393154608</v>
@@ -23741,16 +23741,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>274.836292729917</v>
       </c>
       <c r="G17" t="n">
-        <v>281.9772710621424</v>
+        <v>264.1081310087751</v>
       </c>
       <c r="H17" t="n">
-        <v>176.3985962709346</v>
+        <v>176.3985962709347</v>
       </c>
       <c r="I17" t="n">
-        <v>160.9084221286138</v>
+        <v>10.999529063452</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,19 +23777,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>69.10542099048568</v>
+        <v>69.1054209904857</v>
       </c>
       <c r="S17" t="n">
         <v>179.7218745449422</v>
       </c>
       <c r="T17" t="n">
-        <v>67.55874591012457</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U17" t="n">
         <v>251.2427958325407</v>
       </c>
       <c r="V17" t="n">
-        <v>177.8433654049731</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23814,22 +23814,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>7.736187390239138</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>136.6555998253092</v>
+        <v>102.9039496406093</v>
       </c>
       <c r="H18" t="n">
-        <v>105.5916109993956</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>65.71175959472041</v>
+        <v>65.71175959472042</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,19 +23856,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>57.4466155766215</v>
+        <v>57.44661557662151</v>
       </c>
       <c r="S18" t="n">
-        <v>8.99651520528721</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T18" t="n">
         <v>197.3919390740697</v>
       </c>
       <c r="U18" t="n">
-        <v>89.01669067780361</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V18" t="n">
-        <v>82.89169408426343</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23896,16 +23896,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>14.39420963477471</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>17.50535950584143</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H19" t="n">
-        <v>7.190654004718965</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I19" t="n">
         <v>138.1067275372333</v>
@@ -23938,19 +23938,19 @@
         <v>151.3616578248528</v>
       </c>
       <c r="S19" t="n">
-        <v>213.9658230228616</v>
+        <v>213.9658230228617</v>
       </c>
       <c r="T19" t="n">
         <v>225.481393154608</v>
       </c>
       <c r="U19" t="n">
-        <v>154.2478185199261</v>
+        <v>136.3786784665588</v>
       </c>
       <c r="V19" t="n">
         <v>102.2287502586662</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>136.6141052714292</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23975,10 +23975,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>326.3074893360965</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,13 +24014,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>69.10542099048568</v>
+        <v>69.1054209904857</v>
       </c>
       <c r="S20" t="n">
         <v>179.7218745449422</v>
       </c>
       <c r="T20" t="n">
-        <v>217.4676389752864</v>
+        <v>145.7116005914107</v>
       </c>
       <c r="U20" t="n">
         <v>251.2427958325407</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>114.0980594141875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24048,7 +24048,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>60.95204395211319</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -24063,10 +24063,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>65.71175959472042</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,10 +24093,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>57.4466155766215</v>
+        <v>57.44661557662151</v>
       </c>
       <c r="S21" t="n">
-        <v>158.905408270449</v>
+        <v>48.55408162844633</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>132.5124954435925</v>
       </c>
       <c r="C22" t="n">
-        <v>97.24935357767652</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24175,13 +24175,13 @@
         <v>151.3616578248528</v>
       </c>
       <c r="S22" t="n">
-        <v>213.9658230228616</v>
+        <v>213.9658230228617</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24203,13 +24203,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24218,7 +24218,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>414.0170240739369</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>326.3074893360965</v>
@@ -24251,7 +24251,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>69.1054209904857</v>
       </c>
       <c r="S23" t="n">
         <v>179.7218745449422</v>
@@ -24260,16 +24260,16 @@
         <v>217.4676389752864</v>
       </c>
       <c r="U23" t="n">
-        <v>169.8121386123254</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>323.9046019598514</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24288,13 +24288,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>66.52309581107997</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>22.46551314849292</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -24303,7 +24303,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>65.71175959472042</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,13 +24330,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>57.4466155766215</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>197.3919390740697</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>26.27514299376833</v>
       </c>
       <c r="G25" t="n">
-        <v>167.4142525710033</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>157.0995470698808</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>138.1067275372333</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>52.58459624356988</v>
@@ -24412,13 +24412,13 @@
         <v>151.3616578248528</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>213.9658230228617</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U25" t="n">
-        <v>143.9683555019099</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24440,28 +24440,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>279.4971266216707</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>403.5889712162335</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>160.9084221286138</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,7 +24488,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>69.10542099048568</v>
+        <v>69.1054209904857</v>
       </c>
       <c r="S26" t="n">
         <v>179.7218745449422</v>
@@ -24506,10 +24506,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24525,19 +24525,19 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>129.8590022345455</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>71.53108259570678</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24585,7 +24585,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24601,16 +24601,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>167.4142525710033</v>
@@ -24649,7 +24649,7 @@
         <v>151.3616578248528</v>
       </c>
       <c r="S28" t="n">
-        <v>213.9658230228616</v>
+        <v>213.9658230228617</v>
       </c>
       <c r="T28" t="n">
         <v>225.481393154608</v>
@@ -24658,13 +24658,13 @@
         <v>286.2875715317206</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>166.0399082690825</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>182.603864842176</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24677,13 +24677,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24695,10 +24695,10 @@
         <v>414.0170240739369</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,25 +24725,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>69.1054209904857</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2427958325407</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>15.77777119421881</v>
+        <v>294.0321525188954</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24762,7 +24762,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>71.53108259570685</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -24804,16 +24804,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>57.4466155766215</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>158.905408270449</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>60.95204395211368</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24822,7 +24822,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I31" t="n">
-        <v>26.27514299376864</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J31" t="n">
         <v>52.58459624356988</v>
@@ -24883,10 +24883,10 @@
         <v>37.86903925848996</v>
       </c>
       <c r="R31" t="n">
-        <v>151.3616578248528</v>
+        <v>13.88953435870491</v>
       </c>
       <c r="S31" t="n">
-        <v>213.9658230228616</v>
+        <v>213.9658230228617</v>
       </c>
       <c r="T31" t="n">
         <v>225.481393154608</v>
@@ -24901,10 +24901,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24914,28 +24914,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>82.39880254161795</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>326.3074893360965</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>160.9084221286138</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,28 +24962,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>69.1054209904857</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>208.8697386937722</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25008,13 +25008,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>136.6555998253092</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>74.93670837915468</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>65.71175959472041</v>
+        <v>14.17475644525813</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,7 +25041,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>57.44661557662151</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25062,7 +25062,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>132.5124954435925</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25117,13 +25117,13 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>213.9658230228617</v>
       </c>
       <c r="T34" t="n">
         <v>225.481393154608</v>
@@ -25138,10 +25138,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>47.13974328796155</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25166,10 +25166,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>155.5709367095704</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H35" t="n">
-        <v>326.3074893360965</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>160.9084221286138</v>
@@ -25199,16 +25199,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>69.10542099048568</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>179.7218745449422</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>99.22105853187162</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25230,10 +25230,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -25242,16 +25242,16 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>108.8633813785926</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H36" t="n">
         <v>105.5916109993956</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>65.71175959472042</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,16 +25278,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>57.4466155766215</v>
+        <v>57.44661557662151</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T36" t="n">
-        <v>151.1078950149598</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25299,7 +25299,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25309,10 +25309,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.6398499209994</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25357,10 +25357,10 @@
         <v>37.86903925848996</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>213.9658230228617</v>
       </c>
       <c r="T37" t="n">
         <v>225.481393154608</v>
@@ -25369,13 +25369,13 @@
         <v>286.2875715317206</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>182.6038648421761</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25394,19 +25394,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>133.6261402896963</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25436,19 +25436,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>69.10542099048568</v>
+        <v>69.1054209904857</v>
       </c>
       <c r="S38" t="n">
-        <v>179.7218745449422</v>
+        <v>104.1331201900442</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2427958325407</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25457,7 +25457,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25473,7 +25473,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25482,13 +25482,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.6555998253092</v>
+        <v>13.62797177243614</v>
       </c>
       <c r="H39" t="n">
         <v>105.5916109993956</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>65.71175959472042</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,7 +25515,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>57.44661557662151</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25533,7 +25533,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>147.5758126831076</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25549,16 +25549,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>46.9311625034949</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>63.98734330992592</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25591,13 +25591,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R40" t="n">
         <v>151.3616578248528</v>
       </c>
       <c r="S40" t="n">
-        <v>213.9658230228616</v>
+        <v>213.9658230228617</v>
       </c>
       <c r="T40" t="n">
         <v>225.481393154608</v>
@@ -25628,22 +25628,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>149.1702378663046</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>414.0170240739369</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I41" t="n">
         <v>160.9084221286138</v>
@@ -25673,16 +25673,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>69.10542099048568</v>
+        <v>69.1054209904857</v>
       </c>
       <c r="S41" t="n">
-        <v>117.6359817659105</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T41" t="n">
         <v>217.4676389752864</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25707,7 +25707,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -25716,16 +25716,16 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>137.3675666658989</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>65.71175959472042</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,7 +25752,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>57.4466155766215</v>
+        <v>57.44661557662151</v>
       </c>
       <c r="S42" t="n">
         <v>158.905408270449</v>
@@ -25761,13 +25761,13 @@
         <v>197.3919390740697</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8961243613761</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>46.7219137356322</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>104.9714746240044</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25828,7 +25828,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R43" t="n">
         <v>151.3616578248528</v>
@@ -25837,13 +25837,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.481393154608</v>
+        <v>109.8184272940179</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25910,7 +25910,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>69.10542099048568</v>
+        <v>69.1054209904857</v>
       </c>
       <c r="S44" t="n">
         <v>179.7218745449422</v>
@@ -25962,7 +25962,7 @@
         <v>105.5916109993956</v>
       </c>
       <c r="I45" t="n">
-        <v>65.71175959472041</v>
+        <v>65.71175959472042</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,7 +25989,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>57.4466155766215</v>
+        <v>57.44661557662151</v>
       </c>
       <c r="S45" t="n">
         <v>158.905408270449</v>
@@ -26071,7 +26071,7 @@
         <v>151.3616578248528</v>
       </c>
       <c r="S46" t="n">
-        <v>213.9658230228616</v>
+        <v>213.9658230228617</v>
       </c>
       <c r="T46" t="n">
         <v>225.481393154608</v>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>791074.2764206909</v>
+        <v>791074.2764206908</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>791074.2764206911</v>
+        <v>791074.2764206909</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>791074.2764206908</v>
+        <v>791074.2764206909</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>682584.4409165464</v>
+        <v>682584.4409165465</v>
       </c>
     </row>
     <row r="15">
@@ -26314,10 +26314,10 @@
         <v>86005.92442515711</v>
       </c>
       <c r="C2" t="n">
+        <v>86005.92442515711</v>
+      </c>
+      <c r="D2" t="n">
         <v>86005.92442515712</v>
-      </c>
-      <c r="D2" t="n">
-        <v>86005.92442515714</v>
       </c>
       <c r="E2" t="n">
         <v>129618.1189064379</v>
@@ -26329,16 +26329,16 @@
         <v>129618.1189064379</v>
       </c>
       <c r="H2" t="n">
-        <v>216183.5043883026</v>
+        <v>216183.5043883025</v>
       </c>
       <c r="I2" t="n">
         <v>216183.5043883026</v>
       </c>
       <c r="J2" t="n">
-        <v>216183.5043883025</v>
+        <v>216183.5043883026</v>
       </c>
       <c r="K2" t="n">
-        <v>216183.5043883024</v>
+        <v>216183.5043883027</v>
       </c>
       <c r="L2" t="n">
         <v>216183.5043883026</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37556.29916409595</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="C4" t="n">
-        <v>37556.29916409595</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="D4" t="n">
-        <v>37556.29916409595</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="E4" t="n">
-        <v>22900.39960097435</v>
+        <v>22943.62444976513</v>
       </c>
       <c r="F4" t="n">
-        <v>22900.39960097435</v>
+        <v>22943.62444976512</v>
       </c>
       <c r="G4" t="n">
-        <v>22900.39960097435</v>
+        <v>22943.62444976512</v>
       </c>
       <c r="H4" t="n">
-        <v>61799.71581226198</v>
+        <v>61916.15413436138</v>
       </c>
       <c r="I4" t="n">
-        <v>61799.71581226197</v>
+        <v>61916.15413436138</v>
       </c>
       <c r="J4" t="n">
-        <v>61799.71581226197</v>
+        <v>61916.15413436138</v>
       </c>
       <c r="K4" t="n">
-        <v>61799.71581226197</v>
+        <v>61916.15413436138</v>
       </c>
       <c r="L4" t="n">
-        <v>61799.71581226197</v>
+        <v>61916.15413436139</v>
       </c>
       <c r="M4" t="n">
-        <v>49042.19807534288</v>
+        <v>49134.62512230204</v>
       </c>
       <c r="N4" t="n">
-        <v>49042.19807534287</v>
+        <v>49134.62512230204</v>
       </c>
       <c r="O4" t="n">
-        <v>49042.19807534287</v>
+        <v>49134.62512230204</v>
       </c>
       <c r="P4" t="n">
-        <v>8459.936093318955</v>
+        <v>8475.995510985254</v>
       </c>
     </row>
     <row r="5">
@@ -26485,7 +26485,7 @@
         <v>16086.56326161917</v>
       </c>
       <c r="H5" t="n">
-        <v>43877.72891878347</v>
+        <v>43877.72891878346</v>
       </c>
       <c r="I5" t="n">
         <v>43877.72891878346</v>
@@ -26500,16 +26500,16 @@
         <v>43877.72891878346</v>
       </c>
       <c r="M5" t="n">
-        <v>34763.26822042163</v>
+        <v>34763.26822042162</v>
       </c>
       <c r="N5" t="n">
-        <v>34763.26822042163</v>
+        <v>34763.26822042162</v>
       </c>
       <c r="O5" t="n">
-        <v>34763.26822042163</v>
+        <v>34763.26822042162</v>
       </c>
       <c r="P5" t="n">
-        <v>6972.102563257328</v>
+        <v>6972.102563257327</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14822.02526106116</v>
+        <v>14750.73248915087</v>
       </c>
       <c r="C6" t="n">
-        <v>14822.02526106117</v>
+        <v>14750.73248915087</v>
       </c>
       <c r="D6" t="n">
-        <v>14822.02526106119</v>
+        <v>14750.73248915088</v>
       </c>
       <c r="E6" t="n">
-        <v>-211073.6678347484</v>
+        <v>-211116.8926835392</v>
       </c>
       <c r="F6" t="n">
-        <v>90631.15604384436</v>
+        <v>90587.93119505359</v>
       </c>
       <c r="G6" t="n">
-        <v>90631.1560438444</v>
+        <v>90587.93119505356</v>
       </c>
       <c r="H6" t="n">
-        <v>-12821.35177027323</v>
+        <v>-12937.79009237262</v>
       </c>
       <c r="I6" t="n">
-        <v>110506.0596572572</v>
+        <v>110389.6213351578</v>
       </c>
       <c r="J6" t="n">
-        <v>110506.0596572571</v>
+        <v>110389.6213351577</v>
       </c>
       <c r="K6" t="n">
-        <v>110506.059657257</v>
+        <v>110389.6213351578</v>
       </c>
       <c r="L6" t="n">
-        <v>110506.0596572571</v>
+        <v>110389.6213351578</v>
       </c>
       <c r="M6" t="n">
-        <v>103987.8362008228</v>
+        <v>103895.4091538636</v>
       </c>
       <c r="N6" t="n">
-        <v>103987.8362008228</v>
+        <v>103895.4091538636</v>
       </c>
       <c r="O6" t="n">
-        <v>103987.8362008228</v>
+        <v>103895.4091538636</v>
       </c>
       <c r="P6" t="n">
-        <v>80210.92060895644</v>
+        <v>80194.86119129014</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>319.8212184980426</v>
+        <v>319.8212184980425</v>
       </c>
       <c r="F3" t="n">
-        <v>319.8212184980426</v>
+        <v>319.8212184980425</v>
       </c>
       <c r="G3" t="n">
-        <v>319.8212184980426</v>
+        <v>319.8212184980425</v>
       </c>
       <c r="H3" t="n">
-        <v>319.8212184980426</v>
+        <v>319.8212184980425</v>
       </c>
       <c r="I3" t="n">
-        <v>319.8212184980426</v>
+        <v>319.8212184980425</v>
       </c>
       <c r="J3" t="n">
-        <v>319.8212184980426</v>
+        <v>319.8212184980425</v>
       </c>
       <c r="K3" t="n">
-        <v>319.8212184980426</v>
+        <v>319.8212184980425</v>
       </c>
       <c r="L3" t="n">
-        <v>319.8212184980426</v>
+        <v>319.8212184980425</v>
       </c>
       <c r="M3" t="n">
-        <v>319.8212184980426</v>
+        <v>319.8212184980425</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8212184980426</v>
+        <v>319.8212184980425</v>
       </c>
       <c r="O3" t="n">
-        <v>319.8212184980426</v>
+        <v>319.8212184980425</v>
       </c>
       <c r="P3" t="n">
-        <v>319.8212184980426</v>
+        <v>319.8212184980425</v>
       </c>
     </row>
     <row r="4">
@@ -26805,7 +26805,7 @@
         <v>149.9088930651618</v>
       </c>
       <c r="H4" t="n">
-        <v>607.0004334790484</v>
+        <v>607.0004334790483</v>
       </c>
       <c r="I4" t="n">
         <v>607.0004334790483</v>
@@ -26820,13 +26820,13 @@
         <v>607.0004334790483</v>
       </c>
       <c r="M4" t="n">
-        <v>457.0915404138865</v>
+        <v>457.0915404138864</v>
       </c>
       <c r="N4" t="n">
-        <v>457.0915404138865</v>
+        <v>457.0915404138864</v>
       </c>
       <c r="O4" t="n">
-        <v>457.0915404138865</v>
+        <v>457.0915404138864</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>319.8212184980426</v>
+        <v>319.8212184980425</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27027,7 +27027,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>457.0915404138866</v>
+        <v>457.0915404138865</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>457.0915404138866</v>
+        <v>457.0915404138865</v>
       </c>
     </row>
   </sheetData>
@@ -31756,7 +31756,7 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I11" t="n">
-        <v>49.56746744179212</v>
+        <v>49.56746744179211</v>
       </c>
       <c r="J11" t="n">
         <v>109.1233211798924</v>
@@ -31774,22 +31774,22 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>216.6282505656767</v>
+        <v>216.6282505656766</v>
       </c>
       <c r="P11" t="n">
-        <v>184.8871999860971</v>
+        <v>184.887199986097</v>
       </c>
       <c r="Q11" t="n">
         <v>138.8425873731879</v>
       </c>
       <c r="R11" t="n">
-        <v>80.763696950664</v>
+        <v>80.76369695066398</v>
       </c>
       <c r="S11" t="n">
         <v>29.2981950413031</v>
       </c>
       <c r="T11" t="n">
-        <v>5.628210588844949</v>
+        <v>5.628210588844948</v>
       </c>
       <c r="U11" t="n">
         <v>0.1028570752958528</v>
@@ -31829,22 +31829,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.6879173379014499</v>
       </c>
       <c r="H12" t="n">
-        <v>6.643833237100848</v>
+        <v>6.643833237100847</v>
       </c>
       <c r="I12" t="n">
-        <v>23.68487325669467</v>
+        <v>23.68487325669466</v>
       </c>
       <c r="J12" t="n">
-        <v>64.99310252515411</v>
+        <v>64.9931025251541</v>
       </c>
       <c r="K12" t="n">
-        <v>111.0835641645513</v>
+        <v>111.0835641645512</v>
       </c>
       <c r="L12" t="n">
-        <v>149.3655605825057</v>
+        <v>149.3655605825056</v>
       </c>
       <c r="M12" t="n">
         <v>174.3025640814332</v>
@@ -31853,16 +31853,16 @@
         <v>178.9158342992021</v>
       </c>
       <c r="O12" t="n">
-        <v>163.6730343383332</v>
+        <v>163.6730343383331</v>
       </c>
       <c r="P12" t="n">
         <v>131.3620397261111</v>
       </c>
       <c r="Q12" t="n">
-        <v>87.8120447468588</v>
+        <v>87.81204474685877</v>
       </c>
       <c r="R12" t="n">
-        <v>42.71121857602163</v>
+        <v>42.71121857602162</v>
       </c>
       <c r="S12" t="n">
         <v>12.77776283338877</v>
@@ -31871,7 +31871,7 @@
         <v>2.772789620751896</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04525771959877962</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,37 +31908,37 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5767267874554864</v>
       </c>
       <c r="H13" t="n">
-        <v>5.127625437558784</v>
+        <v>5.127625437558783</v>
       </c>
       <c r="I13" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J13" t="n">
-        <v>40.7745838731029</v>
+        <v>40.77458387310289</v>
       </c>
       <c r="K13" t="n">
-        <v>67.00516676073742</v>
+        <v>67.00516676073741</v>
       </c>
       <c r="L13" t="n">
-        <v>85.74354438224572</v>
+        <v>85.7435443822457</v>
       </c>
       <c r="M13" t="n">
-        <v>90.40454541904504</v>
+        <v>90.40454541904502</v>
       </c>
       <c r="N13" t="n">
-        <v>88.25492739307465</v>
+        <v>88.25492739307464</v>
       </c>
       <c r="O13" t="n">
-        <v>81.51770992143553</v>
+        <v>81.51770992143551</v>
       </c>
       <c r="P13" t="n">
-        <v>69.75248345734354</v>
+        <v>69.75248345734353</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.29300399320443</v>
+        <v>48.29300399320442</v>
       </c>
       <c r="R13" t="n">
         <v>25.93173355231669</v>
@@ -31950,7 +31950,7 @@
         <v>2.464196273673442</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.0314578247702993</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31993,7 +31993,7 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I14" t="n">
-        <v>49.56746744179212</v>
+        <v>49.56746744179211</v>
       </c>
       <c r="J14" t="n">
         <v>109.1233211798924</v>
@@ -32011,22 +32011,22 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>216.6282505656767</v>
+        <v>216.6282505656766</v>
       </c>
       <c r="P14" t="n">
-        <v>184.8871999860971</v>
+        <v>184.887199986097</v>
       </c>
       <c r="Q14" t="n">
         <v>138.8425873731879</v>
       </c>
       <c r="R14" t="n">
-        <v>80.763696950664</v>
+        <v>80.76369695066398</v>
       </c>
       <c r="S14" t="n">
         <v>29.2981950413031</v>
       </c>
       <c r="T14" t="n">
-        <v>5.628210588844949</v>
+        <v>5.628210588844948</v>
       </c>
       <c r="U14" t="n">
         <v>0.1028570752958528</v>
@@ -32066,22 +32066,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.6879173379014499</v>
       </c>
       <c r="H15" t="n">
-        <v>6.643833237100848</v>
+        <v>6.643833237100847</v>
       </c>
       <c r="I15" t="n">
-        <v>23.68487325669467</v>
+        <v>23.68487325669466</v>
       </c>
       <c r="J15" t="n">
-        <v>64.99310252515411</v>
+        <v>64.9931025251541</v>
       </c>
       <c r="K15" t="n">
-        <v>111.0835641645513</v>
+        <v>111.0835641645512</v>
       </c>
       <c r="L15" t="n">
-        <v>149.3655605825057</v>
+        <v>149.3655605825056</v>
       </c>
       <c r="M15" t="n">
         <v>174.3025640814332</v>
@@ -32090,16 +32090,16 @@
         <v>178.9158342992021</v>
       </c>
       <c r="O15" t="n">
-        <v>163.6730343383332</v>
+        <v>163.6730343383331</v>
       </c>
       <c r="P15" t="n">
         <v>131.3620397261111</v>
       </c>
       <c r="Q15" t="n">
-        <v>87.8120447468588</v>
+        <v>87.81204474685877</v>
       </c>
       <c r="R15" t="n">
-        <v>42.71121857602163</v>
+        <v>42.71121857602162</v>
       </c>
       <c r="S15" t="n">
         <v>12.77776283338877</v>
@@ -32108,7 +32108,7 @@
         <v>2.772789620751896</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04525771959877962</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,37 +32145,37 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5767267874554864</v>
       </c>
       <c r="H16" t="n">
-        <v>5.127625437558784</v>
+        <v>5.127625437558783</v>
       </c>
       <c r="I16" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J16" t="n">
-        <v>40.7745838731029</v>
+        <v>40.77458387310289</v>
       </c>
       <c r="K16" t="n">
-        <v>67.00516676073742</v>
+        <v>67.00516676073741</v>
       </c>
       <c r="L16" t="n">
-        <v>85.74354438224572</v>
+        <v>85.7435443822457</v>
       </c>
       <c r="M16" t="n">
-        <v>90.40454541904504</v>
+        <v>90.40454541904502</v>
       </c>
       <c r="N16" t="n">
-        <v>88.25492739307465</v>
+        <v>88.25492739307464</v>
       </c>
       <c r="O16" t="n">
-        <v>81.51770992143553</v>
+        <v>81.51770992143551</v>
       </c>
       <c r="P16" t="n">
-        <v>69.75248345734354</v>
+        <v>69.75248345734353</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.29300399320443</v>
+        <v>48.29300399320442</v>
       </c>
       <c r="R16" t="n">
         <v>25.93173355231669</v>
@@ -32187,7 +32187,7 @@
         <v>2.464196273673442</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.0314578247702993</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32230,7 +32230,7 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I17" t="n">
-        <v>49.56746744179212</v>
+        <v>49.56746744179211</v>
       </c>
       <c r="J17" t="n">
         <v>109.1233211798924</v>
@@ -32248,22 +32248,22 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
-        <v>216.6282505656767</v>
+        <v>216.6282505656766</v>
       </c>
       <c r="P17" t="n">
-        <v>184.8871999860971</v>
+        <v>184.887199986097</v>
       </c>
       <c r="Q17" t="n">
         <v>138.8425873731879</v>
       </c>
       <c r="R17" t="n">
-        <v>80.763696950664</v>
+        <v>80.76369695066398</v>
       </c>
       <c r="S17" t="n">
         <v>29.2981950413031</v>
       </c>
       <c r="T17" t="n">
-        <v>5.628210588844949</v>
+        <v>5.628210588844948</v>
       </c>
       <c r="U17" t="n">
         <v>0.1028570752958528</v>
@@ -32303,22 +32303,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.6879173379014499</v>
       </c>
       <c r="H18" t="n">
-        <v>6.643833237100848</v>
+        <v>6.643833237100847</v>
       </c>
       <c r="I18" t="n">
-        <v>23.68487325669467</v>
+        <v>23.68487325669466</v>
       </c>
       <c r="J18" t="n">
-        <v>64.99310252515411</v>
+        <v>64.9931025251541</v>
       </c>
       <c r="K18" t="n">
-        <v>111.0835641645513</v>
+        <v>111.0835641645512</v>
       </c>
       <c r="L18" t="n">
-        <v>149.3655605825057</v>
+        <v>149.3655605825056</v>
       </c>
       <c r="M18" t="n">
         <v>174.3025640814332</v>
@@ -32327,16 +32327,16 @@
         <v>178.9158342992021</v>
       </c>
       <c r="O18" t="n">
-        <v>163.6730343383332</v>
+        <v>163.6730343383331</v>
       </c>
       <c r="P18" t="n">
         <v>131.3620397261111</v>
       </c>
       <c r="Q18" t="n">
-        <v>87.8120447468588</v>
+        <v>87.81204474685877</v>
       </c>
       <c r="R18" t="n">
-        <v>42.71121857602163</v>
+        <v>42.71121857602162</v>
       </c>
       <c r="S18" t="n">
         <v>12.77776283338877</v>
@@ -32345,7 +32345,7 @@
         <v>2.772789620751896</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04525771959877962</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,37 +32382,37 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5767267874554864</v>
       </c>
       <c r="H19" t="n">
-        <v>5.127625437558784</v>
+        <v>5.127625437558783</v>
       </c>
       <c r="I19" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J19" t="n">
-        <v>40.7745838731029</v>
+        <v>40.77458387310289</v>
       </c>
       <c r="K19" t="n">
-        <v>67.00516676073742</v>
+        <v>67.00516676073741</v>
       </c>
       <c r="L19" t="n">
-        <v>85.74354438224572</v>
+        <v>85.7435443822457</v>
       </c>
       <c r="M19" t="n">
-        <v>90.40454541904504</v>
+        <v>90.40454541904502</v>
       </c>
       <c r="N19" t="n">
-        <v>88.25492739307465</v>
+        <v>88.25492739307464</v>
       </c>
       <c r="O19" t="n">
-        <v>81.51770992143553</v>
+        <v>81.51770992143551</v>
       </c>
       <c r="P19" t="n">
-        <v>69.75248345734354</v>
+        <v>69.75248345734353</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.29300399320443</v>
+        <v>48.29300399320442</v>
       </c>
       <c r="R19" t="n">
         <v>25.93173355231669</v>
@@ -32424,7 +32424,7 @@
         <v>2.464196273673442</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.0314578247702993</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32467,7 +32467,7 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I20" t="n">
-        <v>49.56746744179212</v>
+        <v>49.56746744179211</v>
       </c>
       <c r="J20" t="n">
         <v>109.1233211798924</v>
@@ -32485,22 +32485,22 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O20" t="n">
-        <v>216.6282505656767</v>
+        <v>216.6282505656766</v>
       </c>
       <c r="P20" t="n">
-        <v>184.8871999860971</v>
+        <v>184.887199986097</v>
       </c>
       <c r="Q20" t="n">
         <v>138.8425873731879</v>
       </c>
       <c r="R20" t="n">
-        <v>80.763696950664</v>
+        <v>80.76369695066398</v>
       </c>
       <c r="S20" t="n">
         <v>29.2981950413031</v>
       </c>
       <c r="T20" t="n">
-        <v>5.628210588844949</v>
+        <v>5.628210588844948</v>
       </c>
       <c r="U20" t="n">
         <v>0.1028570752958528</v>
@@ -32540,22 +32540,22 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.6879173379014499</v>
       </c>
       <c r="H21" t="n">
-        <v>6.643833237100848</v>
+        <v>6.643833237100847</v>
       </c>
       <c r="I21" t="n">
-        <v>23.68487325669467</v>
+        <v>23.68487325669466</v>
       </c>
       <c r="J21" t="n">
-        <v>64.99310252515411</v>
+        <v>64.9931025251541</v>
       </c>
       <c r="K21" t="n">
-        <v>111.0835641645513</v>
+        <v>111.0835641645512</v>
       </c>
       <c r="L21" t="n">
-        <v>149.3655605825057</v>
+        <v>149.3655605825056</v>
       </c>
       <c r="M21" t="n">
         <v>174.3025640814332</v>
@@ -32564,16 +32564,16 @@
         <v>178.9158342992021</v>
       </c>
       <c r="O21" t="n">
-        <v>163.6730343383332</v>
+        <v>163.6730343383331</v>
       </c>
       <c r="P21" t="n">
         <v>131.3620397261111</v>
       </c>
       <c r="Q21" t="n">
-        <v>87.8120447468588</v>
+        <v>87.81204474685877</v>
       </c>
       <c r="R21" t="n">
-        <v>42.71121857602163</v>
+        <v>42.71121857602162</v>
       </c>
       <c r="S21" t="n">
         <v>12.77776283338877</v>
@@ -32582,7 +32582,7 @@
         <v>2.772789620751896</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04525771959877962</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,37 +32619,37 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5767267874554864</v>
       </c>
       <c r="H22" t="n">
-        <v>5.127625437558784</v>
+        <v>5.127625437558783</v>
       </c>
       <c r="I22" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J22" t="n">
-        <v>40.7745838731029</v>
+        <v>40.77458387310289</v>
       </c>
       <c r="K22" t="n">
-        <v>67.00516676073742</v>
+        <v>67.00516676073741</v>
       </c>
       <c r="L22" t="n">
-        <v>85.74354438224572</v>
+        <v>85.7435443822457</v>
       </c>
       <c r="M22" t="n">
-        <v>90.40454541904504</v>
+        <v>90.40454541904502</v>
       </c>
       <c r="N22" t="n">
-        <v>88.25492739307465</v>
+        <v>88.25492739307464</v>
       </c>
       <c r="O22" t="n">
-        <v>81.51770992143553</v>
+        <v>81.51770992143551</v>
       </c>
       <c r="P22" t="n">
-        <v>69.75248345734354</v>
+        <v>69.75248345734353</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.29300399320443</v>
+        <v>48.29300399320442</v>
       </c>
       <c r="R22" t="n">
         <v>25.93173355231669</v>
@@ -32661,7 +32661,7 @@
         <v>2.464196273673442</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.0314578247702993</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32704,7 +32704,7 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I23" t="n">
-        <v>49.56746744179212</v>
+        <v>49.56746744179211</v>
       </c>
       <c r="J23" t="n">
         <v>109.1233211798924</v>
@@ -32722,22 +32722,22 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O23" t="n">
-        <v>216.6282505656767</v>
+        <v>216.6282505656766</v>
       </c>
       <c r="P23" t="n">
-        <v>184.8871999860971</v>
+        <v>184.887199986097</v>
       </c>
       <c r="Q23" t="n">
         <v>138.8425873731879</v>
       </c>
       <c r="R23" t="n">
-        <v>80.763696950664</v>
+        <v>80.76369695066398</v>
       </c>
       <c r="S23" t="n">
         <v>29.2981950413031</v>
       </c>
       <c r="T23" t="n">
-        <v>5.628210588844949</v>
+        <v>5.628210588844948</v>
       </c>
       <c r="U23" t="n">
         <v>0.1028570752958528</v>
@@ -32777,22 +32777,22 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.6879173379014499</v>
       </c>
       <c r="H24" t="n">
-        <v>6.643833237100848</v>
+        <v>6.643833237100847</v>
       </c>
       <c r="I24" t="n">
-        <v>23.68487325669467</v>
+        <v>23.68487325669466</v>
       </c>
       <c r="J24" t="n">
-        <v>64.99310252515411</v>
+        <v>64.9931025251541</v>
       </c>
       <c r="K24" t="n">
-        <v>111.0835641645513</v>
+        <v>111.0835641645512</v>
       </c>
       <c r="L24" t="n">
-        <v>149.3655605825057</v>
+        <v>149.3655605825056</v>
       </c>
       <c r="M24" t="n">
         <v>174.3025640814332</v>
@@ -32801,16 +32801,16 @@
         <v>178.9158342992021</v>
       </c>
       <c r="O24" t="n">
-        <v>163.6730343383332</v>
+        <v>163.6730343383331</v>
       </c>
       <c r="P24" t="n">
         <v>131.3620397261111</v>
       </c>
       <c r="Q24" t="n">
-        <v>87.8120447468588</v>
+        <v>87.81204474685877</v>
       </c>
       <c r="R24" t="n">
-        <v>42.71121857602163</v>
+        <v>42.71121857602162</v>
       </c>
       <c r="S24" t="n">
         <v>12.77776283338877</v>
@@ -32819,7 +32819,7 @@
         <v>2.772789620751896</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04525771959877962</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,37 +32856,37 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5767267874554864</v>
       </c>
       <c r="H25" t="n">
-        <v>5.127625437558784</v>
+        <v>5.127625437558783</v>
       </c>
       <c r="I25" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J25" t="n">
-        <v>40.7745838731029</v>
+        <v>40.77458387310289</v>
       </c>
       <c r="K25" t="n">
-        <v>67.00516676073742</v>
+        <v>67.00516676073741</v>
       </c>
       <c r="L25" t="n">
-        <v>85.74354438224572</v>
+        <v>85.7435443822457</v>
       </c>
       <c r="M25" t="n">
-        <v>90.40454541904504</v>
+        <v>90.40454541904502</v>
       </c>
       <c r="N25" t="n">
-        <v>88.25492739307465</v>
+        <v>88.25492739307464</v>
       </c>
       <c r="O25" t="n">
-        <v>81.51770992143553</v>
+        <v>81.51770992143551</v>
       </c>
       <c r="P25" t="n">
-        <v>69.75248345734354</v>
+        <v>69.75248345734353</v>
       </c>
       <c r="Q25" t="n">
-        <v>48.29300399320443</v>
+        <v>48.29300399320442</v>
       </c>
       <c r="R25" t="n">
         <v>25.93173355231669</v>
@@ -32898,7 +32898,7 @@
         <v>2.464196273673442</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.0314578247702993</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32941,7 +32941,7 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I26" t="n">
-        <v>49.56746744179212</v>
+        <v>49.56746744179211</v>
       </c>
       <c r="J26" t="n">
         <v>109.1233211798924</v>
@@ -32959,22 +32959,22 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O26" t="n">
-        <v>216.6282505656767</v>
+        <v>216.6282505656766</v>
       </c>
       <c r="P26" t="n">
-        <v>184.8871999860971</v>
+        <v>184.887199986097</v>
       </c>
       <c r="Q26" t="n">
         <v>138.8425873731879</v>
       </c>
       <c r="R26" t="n">
-        <v>80.763696950664</v>
+        <v>80.76369695066398</v>
       </c>
       <c r="S26" t="n">
         <v>29.2981950413031</v>
       </c>
       <c r="T26" t="n">
-        <v>5.628210588844949</v>
+        <v>5.628210588844948</v>
       </c>
       <c r="U26" t="n">
         <v>0.1028570752958528</v>
@@ -33014,22 +33014,22 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.6879173379014499</v>
       </c>
       <c r="H27" t="n">
-        <v>6.643833237100848</v>
+        <v>6.643833237100847</v>
       </c>
       <c r="I27" t="n">
-        <v>23.68487325669467</v>
+        <v>23.68487325669466</v>
       </c>
       <c r="J27" t="n">
-        <v>64.99310252515411</v>
+        <v>64.9931025251541</v>
       </c>
       <c r="K27" t="n">
-        <v>111.0835641645513</v>
+        <v>111.0835641645512</v>
       </c>
       <c r="L27" t="n">
-        <v>149.3655605825057</v>
+        <v>149.3655605825056</v>
       </c>
       <c r="M27" t="n">
         <v>174.3025640814332</v>
@@ -33038,16 +33038,16 @@
         <v>178.9158342992021</v>
       </c>
       <c r="O27" t="n">
-        <v>163.6730343383332</v>
+        <v>163.6730343383331</v>
       </c>
       <c r="P27" t="n">
         <v>131.3620397261111</v>
       </c>
       <c r="Q27" t="n">
-        <v>87.8120447468588</v>
+        <v>87.81204474685877</v>
       </c>
       <c r="R27" t="n">
-        <v>42.71121857602163</v>
+        <v>42.71121857602162</v>
       </c>
       <c r="S27" t="n">
         <v>12.77776283338877</v>
@@ -33056,7 +33056,7 @@
         <v>2.772789620751896</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04525771959877962</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,37 +33093,37 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5767267874554864</v>
       </c>
       <c r="H28" t="n">
-        <v>5.127625437558784</v>
+        <v>5.127625437558783</v>
       </c>
       <c r="I28" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J28" t="n">
-        <v>40.7745838731029</v>
+        <v>40.77458387310289</v>
       </c>
       <c r="K28" t="n">
-        <v>67.00516676073742</v>
+        <v>67.00516676073741</v>
       </c>
       <c r="L28" t="n">
-        <v>85.74354438224572</v>
+        <v>85.7435443822457</v>
       </c>
       <c r="M28" t="n">
-        <v>90.40454541904504</v>
+        <v>90.40454541904502</v>
       </c>
       <c r="N28" t="n">
-        <v>88.25492739307465</v>
+        <v>88.25492739307464</v>
       </c>
       <c r="O28" t="n">
-        <v>81.51770992143553</v>
+        <v>81.51770992143551</v>
       </c>
       <c r="P28" t="n">
-        <v>69.75248345734354</v>
+        <v>69.75248345734353</v>
       </c>
       <c r="Q28" t="n">
-        <v>48.29300399320443</v>
+        <v>48.29300399320442</v>
       </c>
       <c r="R28" t="n">
         <v>25.93173355231669</v>
@@ -33135,7 +33135,7 @@
         <v>2.464196273673442</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.0314578247702993</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33178,7 +33178,7 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I29" t="n">
-        <v>49.56746744179212</v>
+        <v>49.56746744179211</v>
       </c>
       <c r="J29" t="n">
         <v>109.1233211798924</v>
@@ -33196,22 +33196,22 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O29" t="n">
-        <v>216.6282505656767</v>
+        <v>216.6282505656766</v>
       </c>
       <c r="P29" t="n">
-        <v>184.8871999860971</v>
+        <v>184.887199986097</v>
       </c>
       <c r="Q29" t="n">
         <v>138.8425873731879</v>
       </c>
       <c r="R29" t="n">
-        <v>80.763696950664</v>
+        <v>80.76369695066398</v>
       </c>
       <c r="S29" t="n">
         <v>29.2981950413031</v>
       </c>
       <c r="T29" t="n">
-        <v>5.628210588844949</v>
+        <v>5.628210588844948</v>
       </c>
       <c r="U29" t="n">
         <v>0.1028570752958528</v>
@@ -33251,22 +33251,22 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.6879173379014499</v>
       </c>
       <c r="H30" t="n">
-        <v>6.643833237100848</v>
+        <v>6.643833237100847</v>
       </c>
       <c r="I30" t="n">
-        <v>23.68487325669467</v>
+        <v>23.68487325669466</v>
       </c>
       <c r="J30" t="n">
-        <v>64.99310252515411</v>
+        <v>64.9931025251541</v>
       </c>
       <c r="K30" t="n">
-        <v>111.0835641645513</v>
+        <v>111.0835641645512</v>
       </c>
       <c r="L30" t="n">
-        <v>149.3655605825057</v>
+        <v>149.3655605825056</v>
       </c>
       <c r="M30" t="n">
         <v>174.3025640814332</v>
@@ -33275,16 +33275,16 @@
         <v>178.9158342992021</v>
       </c>
       <c r="O30" t="n">
-        <v>163.6730343383332</v>
+        <v>163.6730343383331</v>
       </c>
       <c r="P30" t="n">
         <v>131.3620397261111</v>
       </c>
       <c r="Q30" t="n">
-        <v>87.8120447468588</v>
+        <v>87.81204474685877</v>
       </c>
       <c r="R30" t="n">
-        <v>42.71121857602163</v>
+        <v>42.71121857602162</v>
       </c>
       <c r="S30" t="n">
         <v>12.77776283338877</v>
@@ -33293,7 +33293,7 @@
         <v>2.772789620751896</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04525771959877962</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,37 +33330,37 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5767267874554864</v>
       </c>
       <c r="H31" t="n">
-        <v>5.127625437558784</v>
+        <v>5.127625437558783</v>
       </c>
       <c r="I31" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J31" t="n">
-        <v>40.7745838731029</v>
+        <v>40.77458387310289</v>
       </c>
       <c r="K31" t="n">
-        <v>67.00516676073742</v>
+        <v>67.00516676073741</v>
       </c>
       <c r="L31" t="n">
-        <v>85.74354438224572</v>
+        <v>85.7435443822457</v>
       </c>
       <c r="M31" t="n">
-        <v>90.40454541904504</v>
+        <v>90.40454541904502</v>
       </c>
       <c r="N31" t="n">
-        <v>88.25492739307465</v>
+        <v>88.25492739307464</v>
       </c>
       <c r="O31" t="n">
-        <v>81.51770992143553</v>
+        <v>81.51770992143551</v>
       </c>
       <c r="P31" t="n">
-        <v>69.75248345734354</v>
+        <v>69.75248345734353</v>
       </c>
       <c r="Q31" t="n">
-        <v>48.29300399320443</v>
+        <v>48.29300399320442</v>
       </c>
       <c r="R31" t="n">
         <v>25.93173355231669</v>
@@ -33372,7 +33372,7 @@
         <v>2.464196273673442</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.0314578247702993</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33415,7 +33415,7 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I32" t="n">
-        <v>49.56746744179212</v>
+        <v>49.56746744179211</v>
       </c>
       <c r="J32" t="n">
         <v>109.1233211798924</v>
@@ -33433,22 +33433,22 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O32" t="n">
-        <v>216.6282505656767</v>
+        <v>216.6282505656766</v>
       </c>
       <c r="P32" t="n">
-        <v>184.8871999860971</v>
+        <v>184.887199986097</v>
       </c>
       <c r="Q32" t="n">
         <v>138.8425873731879</v>
       </c>
       <c r="R32" t="n">
-        <v>80.763696950664</v>
+        <v>80.76369695066398</v>
       </c>
       <c r="S32" t="n">
         <v>29.2981950413031</v>
       </c>
       <c r="T32" t="n">
-        <v>5.628210588844949</v>
+        <v>5.628210588844948</v>
       </c>
       <c r="U32" t="n">
         <v>0.1028570752958528</v>
@@ -33488,22 +33488,22 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.6879173379014499</v>
       </c>
       <c r="H33" t="n">
-        <v>6.643833237100848</v>
+        <v>6.643833237100847</v>
       </c>
       <c r="I33" t="n">
-        <v>23.68487325669467</v>
+        <v>23.68487325669466</v>
       </c>
       <c r="J33" t="n">
-        <v>64.99310252515411</v>
+        <v>64.9931025251541</v>
       </c>
       <c r="K33" t="n">
-        <v>111.0835641645513</v>
+        <v>111.0835641645512</v>
       </c>
       <c r="L33" t="n">
-        <v>149.3655605825057</v>
+        <v>149.3655605825056</v>
       </c>
       <c r="M33" t="n">
         <v>174.3025640814332</v>
@@ -33512,16 +33512,16 @@
         <v>178.9158342992021</v>
       </c>
       <c r="O33" t="n">
-        <v>163.6730343383332</v>
+        <v>163.6730343383331</v>
       </c>
       <c r="P33" t="n">
         <v>131.3620397261111</v>
       </c>
       <c r="Q33" t="n">
-        <v>87.8120447468588</v>
+        <v>87.81204474685877</v>
       </c>
       <c r="R33" t="n">
-        <v>42.71121857602163</v>
+        <v>42.71121857602162</v>
       </c>
       <c r="S33" t="n">
         <v>12.77776283338877</v>
@@ -33530,7 +33530,7 @@
         <v>2.772789620751896</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04525771959877962</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,37 +33567,37 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5767267874554864</v>
       </c>
       <c r="H34" t="n">
-        <v>5.127625437558784</v>
+        <v>5.127625437558783</v>
       </c>
       <c r="I34" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J34" t="n">
-        <v>40.7745838731029</v>
+        <v>40.77458387310289</v>
       </c>
       <c r="K34" t="n">
-        <v>67.00516676073742</v>
+        <v>67.00516676073741</v>
       </c>
       <c r="L34" t="n">
-        <v>85.74354438224572</v>
+        <v>85.7435443822457</v>
       </c>
       <c r="M34" t="n">
-        <v>90.40454541904504</v>
+        <v>90.40454541904502</v>
       </c>
       <c r="N34" t="n">
-        <v>88.25492739307465</v>
+        <v>88.25492739307464</v>
       </c>
       <c r="O34" t="n">
-        <v>81.51770992143553</v>
+        <v>81.51770992143551</v>
       </c>
       <c r="P34" t="n">
-        <v>69.75248345734354</v>
+        <v>69.75248345734353</v>
       </c>
       <c r="Q34" t="n">
-        <v>48.29300399320443</v>
+        <v>48.29300399320442</v>
       </c>
       <c r="R34" t="n">
         <v>25.93173355231669</v>
@@ -33609,7 +33609,7 @@
         <v>2.464196273673442</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.0314578247702993</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33652,7 +33652,7 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I35" t="n">
-        <v>49.56746744179212</v>
+        <v>49.56746744179211</v>
       </c>
       <c r="J35" t="n">
         <v>109.1233211798924</v>
@@ -33670,22 +33670,22 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O35" t="n">
-        <v>216.6282505656767</v>
+        <v>216.6282505656766</v>
       </c>
       <c r="P35" t="n">
-        <v>184.8871999860971</v>
+        <v>184.887199986097</v>
       </c>
       <c r="Q35" t="n">
         <v>138.8425873731879</v>
       </c>
       <c r="R35" t="n">
-        <v>80.763696950664</v>
+        <v>80.76369695066398</v>
       </c>
       <c r="S35" t="n">
         <v>29.2981950413031</v>
       </c>
       <c r="T35" t="n">
-        <v>5.628210588844949</v>
+        <v>5.628210588844948</v>
       </c>
       <c r="U35" t="n">
         <v>0.1028570752958528</v>
@@ -33725,22 +33725,22 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.6879173379014499</v>
       </c>
       <c r="H36" t="n">
-        <v>6.643833237100848</v>
+        <v>6.643833237100847</v>
       </c>
       <c r="I36" t="n">
-        <v>23.68487325669467</v>
+        <v>23.68487325669466</v>
       </c>
       <c r="J36" t="n">
-        <v>64.99310252515411</v>
+        <v>64.9931025251541</v>
       </c>
       <c r="K36" t="n">
-        <v>111.0835641645513</v>
+        <v>111.0835641645512</v>
       </c>
       <c r="L36" t="n">
-        <v>149.3655605825057</v>
+        <v>149.3655605825056</v>
       </c>
       <c r="M36" t="n">
         <v>174.3025640814332</v>
@@ -33749,16 +33749,16 @@
         <v>178.9158342992021</v>
       </c>
       <c r="O36" t="n">
-        <v>163.6730343383332</v>
+        <v>163.6730343383331</v>
       </c>
       <c r="P36" t="n">
         <v>131.3620397261111</v>
       </c>
       <c r="Q36" t="n">
-        <v>87.8120447468588</v>
+        <v>87.81204474685877</v>
       </c>
       <c r="R36" t="n">
-        <v>42.71121857602163</v>
+        <v>42.71121857602162</v>
       </c>
       <c r="S36" t="n">
         <v>12.77776283338877</v>
@@ -33767,7 +33767,7 @@
         <v>2.772789620751896</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04525771959877962</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,37 +33804,37 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5767267874554864</v>
       </c>
       <c r="H37" t="n">
-        <v>5.127625437558784</v>
+        <v>5.127625437558783</v>
       </c>
       <c r="I37" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J37" t="n">
-        <v>40.7745838731029</v>
+        <v>40.77458387310289</v>
       </c>
       <c r="K37" t="n">
-        <v>67.00516676073742</v>
+        <v>67.00516676073741</v>
       </c>
       <c r="L37" t="n">
-        <v>85.74354438224572</v>
+        <v>85.7435443822457</v>
       </c>
       <c r="M37" t="n">
-        <v>90.40454541904504</v>
+        <v>90.40454541904502</v>
       </c>
       <c r="N37" t="n">
-        <v>88.25492739307465</v>
+        <v>88.25492739307464</v>
       </c>
       <c r="O37" t="n">
-        <v>81.51770992143553</v>
+        <v>81.51770992143551</v>
       </c>
       <c r="P37" t="n">
-        <v>69.75248345734354</v>
+        <v>69.75248345734353</v>
       </c>
       <c r="Q37" t="n">
-        <v>48.29300399320443</v>
+        <v>48.29300399320442</v>
       </c>
       <c r="R37" t="n">
         <v>25.93173355231669</v>
@@ -33846,7 +33846,7 @@
         <v>2.464196273673442</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.0314578247702993</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33889,7 +33889,7 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I38" t="n">
-        <v>49.56746744179212</v>
+        <v>49.56746744179211</v>
       </c>
       <c r="J38" t="n">
         <v>109.1233211798924</v>
@@ -33907,22 +33907,22 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O38" t="n">
-        <v>216.6282505656767</v>
+        <v>216.6282505656766</v>
       </c>
       <c r="P38" t="n">
-        <v>184.8871999860971</v>
+        <v>184.887199986097</v>
       </c>
       <c r="Q38" t="n">
         <v>138.8425873731879</v>
       </c>
       <c r="R38" t="n">
-        <v>80.763696950664</v>
+        <v>80.76369695066398</v>
       </c>
       <c r="S38" t="n">
         <v>29.2981950413031</v>
       </c>
       <c r="T38" t="n">
-        <v>5.628210588844949</v>
+        <v>5.628210588844948</v>
       </c>
       <c r="U38" t="n">
         <v>0.1028570752958528</v>
@@ -33962,22 +33962,22 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.6879173379014499</v>
       </c>
       <c r="H39" t="n">
-        <v>6.643833237100848</v>
+        <v>6.643833237100847</v>
       </c>
       <c r="I39" t="n">
-        <v>23.68487325669467</v>
+        <v>23.68487325669466</v>
       </c>
       <c r="J39" t="n">
-        <v>64.99310252515411</v>
+        <v>64.9931025251541</v>
       </c>
       <c r="K39" t="n">
-        <v>111.0835641645513</v>
+        <v>111.0835641645512</v>
       </c>
       <c r="L39" t="n">
-        <v>149.3655605825057</v>
+        <v>149.3655605825056</v>
       </c>
       <c r="M39" t="n">
         <v>174.3025640814332</v>
@@ -33986,16 +33986,16 @@
         <v>178.9158342992021</v>
       </c>
       <c r="O39" t="n">
-        <v>163.6730343383332</v>
+        <v>163.6730343383331</v>
       </c>
       <c r="P39" t="n">
         <v>131.3620397261111</v>
       </c>
       <c r="Q39" t="n">
-        <v>87.8120447468588</v>
+        <v>87.81204474685877</v>
       </c>
       <c r="R39" t="n">
-        <v>42.71121857602163</v>
+        <v>42.71121857602162</v>
       </c>
       <c r="S39" t="n">
         <v>12.77776283338877</v>
@@ -34004,7 +34004,7 @@
         <v>2.772789620751896</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04525771959877962</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,37 +34041,37 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5767267874554864</v>
       </c>
       <c r="H40" t="n">
-        <v>5.127625437558784</v>
+        <v>5.127625437558783</v>
       </c>
       <c r="I40" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J40" t="n">
-        <v>40.7745838731029</v>
+        <v>40.77458387310289</v>
       </c>
       <c r="K40" t="n">
-        <v>67.00516676073742</v>
+        <v>67.00516676073741</v>
       </c>
       <c r="L40" t="n">
-        <v>85.74354438224572</v>
+        <v>85.7435443822457</v>
       </c>
       <c r="M40" t="n">
-        <v>90.40454541904504</v>
+        <v>90.40454541904502</v>
       </c>
       <c r="N40" t="n">
-        <v>88.25492739307465</v>
+        <v>88.25492739307464</v>
       </c>
       <c r="O40" t="n">
-        <v>81.51770992143553</v>
+        <v>81.51770992143551</v>
       </c>
       <c r="P40" t="n">
-        <v>69.75248345734354</v>
+        <v>69.75248345734353</v>
       </c>
       <c r="Q40" t="n">
-        <v>48.29300399320443</v>
+        <v>48.29300399320442</v>
       </c>
       <c r="R40" t="n">
         <v>25.93173355231669</v>
@@ -34083,7 +34083,7 @@
         <v>2.464196273673442</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.0314578247702993</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34126,7 +34126,7 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I41" t="n">
-        <v>49.56746744179212</v>
+        <v>49.56746744179211</v>
       </c>
       <c r="J41" t="n">
         <v>109.1233211798924</v>
@@ -34144,22 +34144,22 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O41" t="n">
-        <v>216.6282505656767</v>
+        <v>216.6282505656766</v>
       </c>
       <c r="P41" t="n">
-        <v>184.8871999860971</v>
+        <v>184.887199986097</v>
       </c>
       <c r="Q41" t="n">
         <v>138.8425873731879</v>
       </c>
       <c r="R41" t="n">
-        <v>80.763696950664</v>
+        <v>80.76369695066398</v>
       </c>
       <c r="S41" t="n">
         <v>29.2981950413031</v>
       </c>
       <c r="T41" t="n">
-        <v>5.628210588844949</v>
+        <v>5.628210588844948</v>
       </c>
       <c r="U41" t="n">
         <v>0.1028570752958528</v>
@@ -34199,22 +34199,22 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.6879173379014499</v>
       </c>
       <c r="H42" t="n">
-        <v>6.643833237100848</v>
+        <v>6.643833237100847</v>
       </c>
       <c r="I42" t="n">
-        <v>23.68487325669467</v>
+        <v>23.68487325669466</v>
       </c>
       <c r="J42" t="n">
-        <v>64.99310252515411</v>
+        <v>64.9931025251541</v>
       </c>
       <c r="K42" t="n">
-        <v>111.0835641645513</v>
+        <v>111.0835641645512</v>
       </c>
       <c r="L42" t="n">
-        <v>149.3655605825057</v>
+        <v>149.3655605825056</v>
       </c>
       <c r="M42" t="n">
         <v>174.3025640814332</v>
@@ -34223,16 +34223,16 @@
         <v>178.9158342992021</v>
       </c>
       <c r="O42" t="n">
-        <v>163.6730343383332</v>
+        <v>163.6730343383331</v>
       </c>
       <c r="P42" t="n">
         <v>131.3620397261111</v>
       </c>
       <c r="Q42" t="n">
-        <v>87.8120447468588</v>
+        <v>87.81204474685877</v>
       </c>
       <c r="R42" t="n">
-        <v>42.71121857602163</v>
+        <v>42.71121857602162</v>
       </c>
       <c r="S42" t="n">
         <v>12.77776283338877</v>
@@ -34241,7 +34241,7 @@
         <v>2.772789620751896</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04525771959877962</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,37 +34278,37 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5767267874554864</v>
       </c>
       <c r="H43" t="n">
-        <v>5.127625437558784</v>
+        <v>5.127625437558783</v>
       </c>
       <c r="I43" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J43" t="n">
-        <v>40.7745838731029</v>
+        <v>40.77458387310289</v>
       </c>
       <c r="K43" t="n">
-        <v>67.00516676073742</v>
+        <v>67.00516676073741</v>
       </c>
       <c r="L43" t="n">
-        <v>85.74354438224572</v>
+        <v>85.7435443822457</v>
       </c>
       <c r="M43" t="n">
-        <v>90.40454541904504</v>
+        <v>90.40454541904502</v>
       </c>
       <c r="N43" t="n">
-        <v>88.25492739307465</v>
+        <v>88.25492739307464</v>
       </c>
       <c r="O43" t="n">
-        <v>81.51770992143553</v>
+        <v>81.51770992143551</v>
       </c>
       <c r="P43" t="n">
-        <v>69.75248345734354</v>
+        <v>69.75248345734353</v>
       </c>
       <c r="Q43" t="n">
-        <v>48.29300399320443</v>
+        <v>48.29300399320442</v>
       </c>
       <c r="R43" t="n">
         <v>25.93173355231669</v>
@@ -34320,7 +34320,7 @@
         <v>2.464196273673442</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.0314578247702993</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34363,7 +34363,7 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I44" t="n">
-        <v>49.56746744179212</v>
+        <v>49.56746744179211</v>
       </c>
       <c r="J44" t="n">
         <v>109.1233211798924</v>
@@ -34381,22 +34381,22 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O44" t="n">
-        <v>216.6282505656767</v>
+        <v>216.6282505656766</v>
       </c>
       <c r="P44" t="n">
-        <v>184.8871999860971</v>
+        <v>184.887199986097</v>
       </c>
       <c r="Q44" t="n">
         <v>138.8425873731879</v>
       </c>
       <c r="R44" t="n">
-        <v>80.763696950664</v>
+        <v>80.76369695066398</v>
       </c>
       <c r="S44" t="n">
         <v>29.2981950413031</v>
       </c>
       <c r="T44" t="n">
-        <v>5.628210588844949</v>
+        <v>5.628210588844948</v>
       </c>
       <c r="U44" t="n">
         <v>0.1028570752958528</v>
@@ -34436,19 +34436,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.6879173379014499</v>
       </c>
       <c r="H45" t="n">
-        <v>6.643833237100848</v>
+        <v>6.643833237100847</v>
       </c>
       <c r="I45" t="n">
-        <v>23.68487325669467</v>
+        <v>23.68487325669466</v>
       </c>
       <c r="J45" t="n">
-        <v>64.99310252515411</v>
+        <v>64.9931025251541</v>
       </c>
       <c r="K45" t="n">
-        <v>111.0835641645513</v>
+        <v>111.0835641645512</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
@@ -34466,10 +34466,10 @@
         <v>131.3620397261111</v>
       </c>
       <c r="Q45" t="n">
-        <v>87.8120447468588</v>
+        <v>87.81204474685877</v>
       </c>
       <c r="R45" t="n">
-        <v>42.71121857602163</v>
+        <v>42.71121857602162</v>
       </c>
       <c r="S45" t="n">
         <v>12.77776283338877</v>
@@ -34478,7 +34478,7 @@
         <v>2.772789620751896</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04525771959877962</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,37 +34515,37 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5767267874554864</v>
       </c>
       <c r="H46" t="n">
-        <v>5.127625437558784</v>
+        <v>5.127625437558783</v>
       </c>
       <c r="I46" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J46" t="n">
-        <v>40.7745838731029</v>
+        <v>40.77458387310289</v>
       </c>
       <c r="K46" t="n">
-        <v>67.00516676073742</v>
+        <v>67.00516676073741</v>
       </c>
       <c r="L46" t="n">
-        <v>85.74354438224572</v>
+        <v>85.7435443822457</v>
       </c>
       <c r="M46" t="n">
-        <v>90.40454541904504</v>
+        <v>90.40454541904502</v>
       </c>
       <c r="N46" t="n">
-        <v>88.25492739307465</v>
+        <v>88.25492739307464</v>
       </c>
       <c r="O46" t="n">
-        <v>81.51770992143553</v>
+        <v>81.51770992143551</v>
       </c>
       <c r="P46" t="n">
-        <v>69.75248345734354</v>
+        <v>69.75248345734353</v>
       </c>
       <c r="Q46" t="n">
-        <v>48.29300399320443</v>
+        <v>48.29300399320442</v>
       </c>
       <c r="R46" t="n">
         <v>25.93173355231669</v>
@@ -34557,7 +34557,7 @@
         <v>2.464196273673442</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.0314578247702993</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>97.17403182527991</v>
       </c>
       <c r="K11" t="n">
         <v>149.9088930651618</v>
@@ -35419,10 +35419,10 @@
         <v>149.9088930651618</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>46.67793626755211</v>
       </c>
       <c r="O11" t="n">
-        <v>143.8519680928321</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>149.9088930651618</v>
@@ -35489,13 +35489,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>111.6834379334173</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>149.9088930651618</v>
+        <v>10.81118080263144</v>
       </c>
       <c r="M12" t="n">
-        <v>32.16853015941487</v>
+        <v>32.16853015941484</v>
       </c>
       <c r="N12" t="n">
         <v>149.9088930651618</v>
@@ -35504,10 +35504,10 @@
         <v>149.9088930651618</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>100.8722571307858</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>149.9088930651618</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,7 +35568,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>44.73567493485457</v>
+        <v>44.73567493485456</v>
       </c>
       <c r="L13" t="n">
         <v>113.3335696425619</v>
@@ -35577,13 +35577,13 @@
         <v>129.9884223808856</v>
       </c>
       <c r="N13" t="n">
-        <v>132.3870997723033</v>
+        <v>132.3870997723032</v>
       </c>
       <c r="O13" t="n">
         <v>106.1028378354752</v>
       </c>
       <c r="P13" t="n">
-        <v>67.03104272223698</v>
+        <v>67.03104272223702</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,25 +35644,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>15.00007993418895</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>15.00007993418896</v>
+      </c>
+      <c r="N14" t="n">
         <v>149.9088930651618</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>149.9088930651618</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>149.9088930651618</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>149.9088930651618</v>
       </c>
       <c r="Q14" t="n">
         <v>128.8518881586431</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>64.24651119889626</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>10.81118080263147</v>
+        <v>64.1093157175484</v>
       </c>
       <c r="M15" t="n">
-        <v>47.71748619741566</v>
+        <v>32.16853015941484</v>
       </c>
       <c r="N15" t="n">
+        <v>47.57412221586881</v>
+      </c>
+      <c r="O15" t="n">
         <v>149.9088930651618</v>
-      </c>
-      <c r="O15" t="n">
-        <v>21.07678989388873</v>
       </c>
       <c r="P15" t="n">
         <v>149.9088930651618</v>
@@ -35805,22 +35805,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>44.73567493485457</v>
+        <v>44.73567493485456</v>
       </c>
       <c r="L16" t="n">
-        <v>113.3335696425619</v>
+        <v>113.3335696425618</v>
       </c>
       <c r="M16" t="n">
-        <v>129.9884223808856</v>
+        <v>129.9884223808857</v>
       </c>
       <c r="N16" t="n">
-        <v>132.3870997723033</v>
+        <v>132.3870997723032</v>
       </c>
       <c r="O16" t="n">
         <v>106.1028378354752</v>
       </c>
       <c r="P16" t="n">
-        <v>67.03104272223703</v>
+        <v>67.03104272223702</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>97.17403182527991</v>
       </c>
       <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
         <v>149.9088930651618</v>
-      </c>
-      <c r="L17" t="n">
-        <v>143.8519680928321</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>149.9088930651618</v>
       </c>
       <c r="O17" t="n">
-        <v>149.9088930651618</v>
+        <v>67.73494117407081</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>128.8518881586431</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35969,16 +35969,16 @@
         <v>149.9088930651618</v>
       </c>
       <c r="M18" t="n">
-        <v>96.27784587696328</v>
+        <v>32.16853015941484</v>
       </c>
       <c r="N18" t="n">
-        <v>47.57412221586884</v>
+        <v>47.57412221586881</v>
       </c>
       <c r="O18" t="n">
+        <v>64.10931571754843</v>
+      </c>
+      <c r="P18" t="n">
         <v>149.9088930651618</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>149.9088930651618</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>44.73567493485457</v>
+        <v>44.73567493485456</v>
       </c>
       <c r="L19" t="n">
-        <v>113.3335696425619</v>
+        <v>113.3335696425618</v>
       </c>
       <c r="M19" t="n">
         <v>129.9884223808856</v>
       </c>
       <c r="N19" t="n">
-        <v>132.3870997723033</v>
+        <v>132.3870997723032</v>
       </c>
       <c r="O19" t="n">
         <v>106.1028378354752</v>
       </c>
       <c r="P19" t="n">
-        <v>67.03104272223703</v>
+        <v>67.03104272223702</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>97.17403182527993</v>
+        <v>97.17403182527991</v>
       </c>
       <c r="K20" t="n">
         <v>267.6031326719948</v>
@@ -36127,7 +36127,7 @@
         <v>384.790023452342</v>
       </c>
       <c r="M20" t="n">
-        <v>444.9273305473464</v>
+        <v>444.9273305473463</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119841</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>28.53797497660132</v>
+        <v>64.24651119889624</v>
       </c>
       <c r="K21" t="n">
         <v>237.7073622027709</v>
@@ -36209,10 +36209,10 @@
         <v>497.8735939094148</v>
       </c>
       <c r="N21" t="n">
-        <v>526.9164965594224</v>
+        <v>491.207960337127</v>
       </c>
       <c r="O21" t="n">
-        <v>414.9391091706183</v>
+        <v>414.9391091706182</v>
       </c>
       <c r="P21" t="n">
         <v>315.850400951718</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>44.73567493485457</v>
+        <v>44.73567493485456</v>
       </c>
       <c r="L22" t="n">
-        <v>113.3335696425619</v>
+        <v>113.3335696425618</v>
       </c>
       <c r="M22" t="n">
         <v>129.9884223808856</v>
       </c>
       <c r="N22" t="n">
-        <v>132.3870997723033</v>
+        <v>132.3870997723032</v>
       </c>
       <c r="O22" t="n">
         <v>106.1028378354752</v>
       </c>
       <c r="P22" t="n">
-        <v>67.03104272223703</v>
+        <v>67.03104272223702</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>97.17403182527993</v>
+        <v>97.17403182527991</v>
       </c>
       <c r="K23" t="n">
         <v>267.6031326719948</v>
@@ -36364,7 +36364,7 @@
         <v>384.790023452342</v>
       </c>
       <c r="M23" t="n">
-        <v>444.9273305473464</v>
+        <v>444.9273305473463</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119841</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>64.24651119889626</v>
+        <v>64.24651119889624</v>
       </c>
       <c r="K24" t="n">
-        <v>237.7073622027709</v>
+        <v>201.9988259804755</v>
       </c>
       <c r="L24" t="n">
         <v>381.6515261060906</v>
@@ -36446,13 +36446,13 @@
         <v>497.8735939094148</v>
       </c>
       <c r="N24" t="n">
-        <v>526.9164965594224</v>
+        <v>526.9164965594223</v>
       </c>
       <c r="O24" t="n">
-        <v>414.9391091706183</v>
+        <v>414.9391091706182</v>
       </c>
       <c r="P24" t="n">
-        <v>280.1418647294227</v>
+        <v>315.850400951718</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>44.73567493485457</v>
+        <v>44.73567493485456</v>
       </c>
       <c r="L25" t="n">
-        <v>113.3335696425619</v>
+        <v>113.3335696425618</v>
       </c>
       <c r="M25" t="n">
         <v>129.9884223808856</v>
       </c>
       <c r="N25" t="n">
-        <v>132.3870997723033</v>
+        <v>132.3870997723032</v>
       </c>
       <c r="O25" t="n">
         <v>106.1028378354752</v>
       </c>
       <c r="P25" t="n">
-        <v>67.03104272223703</v>
+        <v>67.03104272223702</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>97.17403182527993</v>
+        <v>97.17403182527991</v>
       </c>
       <c r="K26" t="n">
         <v>267.6031326719948</v>
@@ -36601,7 +36601,7 @@
         <v>384.790023452342</v>
       </c>
       <c r="M26" t="n">
-        <v>444.9273305473464</v>
+        <v>444.9273305473463</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119841</v>
@@ -36683,10 +36683,10 @@
         <v>497.8735939094148</v>
       </c>
       <c r="N27" t="n">
-        <v>526.9164965594224</v>
+        <v>526.9164965594223</v>
       </c>
       <c r="O27" t="n">
-        <v>414.9391091706183</v>
+        <v>414.9391091706182</v>
       </c>
       <c r="P27" t="n">
         <v>315.850400951718</v>
@@ -36753,22 +36753,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>44.73567493485457</v>
+        <v>44.73567493485456</v>
       </c>
       <c r="L28" t="n">
-        <v>113.3335696425619</v>
+        <v>113.3335696425618</v>
       </c>
       <c r="M28" t="n">
         <v>129.9884223808856</v>
       </c>
       <c r="N28" t="n">
-        <v>132.3870997723033</v>
+        <v>132.3870997723032</v>
       </c>
       <c r="O28" t="n">
         <v>106.1028378354752</v>
       </c>
       <c r="P28" t="n">
-        <v>67.03104272223703</v>
+        <v>67.03104272223702</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>97.17403182527993</v>
+        <v>97.17403182527991</v>
       </c>
       <c r="K29" t="n">
         <v>267.6031326719948</v>
@@ -36838,7 +36838,7 @@
         <v>384.790023452342</v>
       </c>
       <c r="M29" t="n">
-        <v>444.9273305473464</v>
+        <v>444.9273305473463</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119841</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>64.24651119889626</v>
+        <v>28.53797497660087</v>
       </c>
       <c r="K30" t="n">
         <v>237.7073622027709</v>
       </c>
       <c r="L30" t="n">
-        <v>188.035431487109</v>
+        <v>381.6515261060906</v>
       </c>
       <c r="M30" t="n">
         <v>497.8735939094148</v>
       </c>
       <c r="N30" t="n">
-        <v>526.9164965594224</v>
+        <v>526.9164965594223</v>
       </c>
       <c r="O30" t="n">
-        <v>414.9391091706183</v>
+        <v>414.9391091706182</v>
       </c>
       <c r="P30" t="n">
         <v>315.850400951718</v>
       </c>
       <c r="Q30" t="n">
-        <v>157.9075583966864</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,22 +36990,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>44.73567493485457</v>
+        <v>44.73567493485456</v>
       </c>
       <c r="L31" t="n">
-        <v>113.3335696425619</v>
+        <v>113.3335696425618</v>
       </c>
       <c r="M31" t="n">
         <v>129.9884223808856</v>
       </c>
       <c r="N31" t="n">
-        <v>132.3870997723033</v>
+        <v>132.3870997723032</v>
       </c>
       <c r="O31" t="n">
         <v>106.1028378354752</v>
       </c>
       <c r="P31" t="n">
-        <v>67.03104272223703</v>
+        <v>67.03104272223702</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>97.17403182527993</v>
+        <v>97.17403182527991</v>
       </c>
       <c r="K32" t="n">
         <v>267.6031326719948</v>
@@ -37075,7 +37075,7 @@
         <v>384.790023452342</v>
       </c>
       <c r="M32" t="n">
-        <v>444.9273305473464</v>
+        <v>444.9273305473463</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119841</v>
@@ -37087,7 +37087,7 @@
         <v>275.4529124023102</v>
       </c>
       <c r="Q32" t="n">
-        <v>128.851888158643</v>
+        <v>128.8518881586431</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>64.24651119889624</v>
       </c>
       <c r="K33" t="n">
         <v>237.7073622027709</v>
@@ -37157,16 +37157,16 @@
         <v>497.8735939094148</v>
       </c>
       <c r="N33" t="n">
-        <v>526.9164965594224</v>
+        <v>526.9164965594223</v>
       </c>
       <c r="O33" t="n">
-        <v>414.9391091706183</v>
+        <v>414.9391091706182</v>
       </c>
       <c r="P33" t="n">
-        <v>186.4808175316326</v>
+        <v>122.2343063327365</v>
       </c>
       <c r="Q33" t="n">
-        <v>157.9075583966864</v>
+        <v>157.9075583966863</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,22 +37227,22 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>44.73567493485457</v>
+        <v>44.73567493485456</v>
       </c>
       <c r="L34" t="n">
-        <v>113.3335696425619</v>
+        <v>113.3335696425618</v>
       </c>
       <c r="M34" t="n">
         <v>129.9884223808856</v>
       </c>
       <c r="N34" t="n">
-        <v>132.3870997723033</v>
+        <v>132.3870997723032</v>
       </c>
       <c r="O34" t="n">
         <v>106.1028378354752</v>
       </c>
       <c r="P34" t="n">
-        <v>67.03104272223703</v>
+        <v>67.03104272223702</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>97.17403182527993</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>267.6031326719948</v>
@@ -37312,7 +37312,7 @@
         <v>384.790023452342</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>77.37460324295152</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119841</v>
@@ -37321,10 +37321,10 @@
         <v>367.3302204067353</v>
       </c>
       <c r="P35" t="n">
-        <v>126.8015956613394</v>
+        <v>275.4529124023102</v>
       </c>
       <c r="Q35" t="n">
-        <v>128.8518881586431</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>64.24651119889624</v>
       </c>
       <c r="K36" t="n">
         <v>237.7073622027709</v>
@@ -37391,19 +37391,19 @@
         <v>381.6515261060906</v>
       </c>
       <c r="M36" t="n">
-        <v>457.0915404138865</v>
+        <v>457.0915404138864</v>
       </c>
       <c r="N36" t="n">
-        <v>318.5082786949519</v>
+        <v>96.35420909936913</v>
       </c>
       <c r="O36" t="n">
-        <v>414.9391091706183</v>
+        <v>414.9391091706182</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>157.9075583966863</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,22 +37464,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>44.73567493485457</v>
+        <v>44.73567493485456</v>
       </c>
       <c r="L37" t="n">
-        <v>113.3335696425619</v>
+        <v>113.3335696425618</v>
       </c>
       <c r="M37" t="n">
         <v>129.9884223808856</v>
       </c>
       <c r="N37" t="n">
-        <v>132.3870997723033</v>
+        <v>132.3870997723032</v>
       </c>
       <c r="O37" t="n">
         <v>106.1028378354752</v>
       </c>
       <c r="P37" t="n">
-        <v>67.03104272223703</v>
+        <v>67.03104272223702</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>97.17403182527993</v>
+        <v>97.17403182527991</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>267.6031326719948</v>
       </c>
       <c r="L38" t="n">
-        <v>58.81450883601937</v>
+        <v>384.790023452342</v>
       </c>
       <c r="M38" t="n">
-        <v>444.9273305473464</v>
+        <v>444.9273305473463</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119841</v>
       </c>
       <c r="O38" t="n">
-        <v>367.3302204067353</v>
+        <v>178.0563736793708</v>
       </c>
       <c r="P38" t="n">
-        <v>275.4529124023102</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>128.8518881586431</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>64.24651119889624</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>237.7073622027709</v>
       </c>
       <c r="L39" t="n">
-        <v>10.81118080263147</v>
+        <v>381.6515261060906</v>
       </c>
       <c r="M39" t="n">
-        <v>457.0915404138865</v>
+        <v>457.0915404138864</v>
       </c>
       <c r="N39" t="n">
-        <v>457.0915404138865</v>
+        <v>457.0915404138864</v>
       </c>
       <c r="O39" t="n">
-        <v>414.9391091706183</v>
+        <v>212.1093362527874</v>
       </c>
       <c r="P39" t="n">
-        <v>315.850400951718</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>154.1140448355776</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,22 +37701,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>44.73567493485457</v>
+        <v>44.73567493485456</v>
       </c>
       <c r="L40" t="n">
-        <v>113.3335696425619</v>
+        <v>113.3335696425618</v>
       </c>
       <c r="M40" t="n">
         <v>129.9884223808856</v>
       </c>
       <c r="N40" t="n">
-        <v>132.3870997723033</v>
+        <v>132.3870997723032</v>
       </c>
       <c r="O40" t="n">
         <v>106.1028378354752</v>
       </c>
       <c r="P40" t="n">
-        <v>67.03104272223703</v>
+        <v>67.03104272223702</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37780,22 +37780,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>267.6031326719948</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>384.790023452342</v>
       </c>
       <c r="M41" t="n">
-        <v>444.9273305473464</v>
+        <v>444.9273305473463</v>
       </c>
       <c r="N41" t="n">
-        <v>345.2471095098998</v>
+        <v>437.3469244119841</v>
       </c>
       <c r="O41" t="n">
         <v>367.3302204067353</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>175.5033177699102</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>64.24651119889626</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>237.7073622027709</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>381.6515261060906</v>
       </c>
       <c r="M42" t="n">
-        <v>457.0915404138865</v>
+        <v>457.0915404138864</v>
       </c>
       <c r="N42" t="n">
-        <v>47.57412221586884</v>
+        <v>240.3652399460046</v>
       </c>
       <c r="O42" t="n">
-        <v>414.9391091706183</v>
+        <v>414.9391091706182</v>
       </c>
       <c r="P42" t="n">
-        <v>206.6876452801869</v>
+        <v>315.850400951718</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37938,22 +37938,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>44.73567493485457</v>
+        <v>44.73567493485456</v>
       </c>
       <c r="L43" t="n">
-        <v>113.3335696425619</v>
+        <v>113.3335696425618</v>
       </c>
       <c r="M43" t="n">
         <v>129.9884223808856</v>
       </c>
       <c r="N43" t="n">
-        <v>132.3870997723033</v>
+        <v>132.3870997723032</v>
       </c>
       <c r="O43" t="n">
         <v>106.1028378354752</v>
       </c>
       <c r="P43" t="n">
-        <v>67.03104272223703</v>
+        <v>67.03104272223702</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
